--- a/output.xlsx
+++ b/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -825,15 +825,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>卢卢猹</t>
+          <t>昭昭木木SAMA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>爆☆杀麻雀格斗倶楽部</t>
+          <t>汪汪队立大功</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -900,7 +900,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>丿破风</t>
+          <t>卢卢猹</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -975,7 +975,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>一只亚亚亚</t>
+          <t>丿破风</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>白子</t>
+          <t>一只亚亚亚</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1125,15 +1125,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>我爱手抓肉</t>
+          <t>七千崖</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>国士无双</t>
+          <t>爆☆杀麻雀格斗倶楽部</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1200,15 +1200,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>玄赤</t>
+          <t>量子蝈民九折酱</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>国士无双</t>
+          <t>爆☆杀麻雀格斗倶楽部</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南风y</t>
+          <t>我爱手抓肉</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>白子</t>
+          <t>玄赤</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1425,15 +1425,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hastur</t>
+          <t>南风y</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>哈基土豆饼</t>
+          <t>国士无双</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1500,15 +1500,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>IotatoJC</t>
+          <t>时雨225</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>哈基土豆饼</t>
+          <t>国士无双</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1575,15 +1575,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>mudqpitty</t>
+          <t>李乐逸</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>哈基土豆饼</t>
+          <t>国士无双</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>白子</t>
+          <t>Hastur</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1725,15 +1725,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>慷忾</t>
+          <t>IotatoJC</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>狂勇carry</t>
+          <t>哈基土豆饼</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1800,15 +1800,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Flamingo_li</t>
+          <t>mudqpitty</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>狂勇carry</t>
+          <t>哈基土豆饼</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1875,15 +1875,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>幸福的勇气</t>
+          <t>雨水磁浮202</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>狂勇carry</t>
+          <t>哈基土豆饼</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1950,15 +1950,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>小星今天吃什么</t>
+          <t>把把狗运</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>狂勇carry</t>
+          <t>哈基土豆饼</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2025,15 +2025,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>林雨</t>
+          <t>慷忾</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>北极星Cassiopeia</t>
+          <t>狂勇carry</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2100,15 +2100,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NagatoYukki</t>
+          <t>Flamingo_li</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>北极星Cassiopeia</t>
+          <t>狂勇carry</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2175,15 +2175,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>失去梦想皮皮虾</t>
+          <t>幸福的勇气</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>北极星Cassiopeia</t>
+          <t>狂勇carry</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2250,15 +2250,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>白子</t>
+          <t>小星今天吃什么</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>北极星Cassiopeia</t>
+          <t>狂勇carry</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2325,15 +2325,15 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>唤灵</t>
+          <t>箴言吶</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>非日常麻雀结社</t>
+          <t>狂勇carry</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2400,15 +2400,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>无望</t>
+          <t>林雨</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>非日常麻雀结社</t>
+          <t>北极星Cassiopeia</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2475,15 +2475,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>白子</t>
+          <t>NagatoYukki</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>非日常麻雀结社</t>
+          <t>北极星Cassiopeia</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2550,15 +2550,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>白子</t>
+          <t>失去梦想皮皮虾</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>非日常麻雀结社</t>
+          <t>北极星Cassiopeia</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2625,15 +2625,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>洛铭轩</t>
+          <t>烨十七</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>nzmzd对不队</t>
+          <t>北极星Cassiopeia</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2700,15 +2700,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>平地摔的saki</t>
+          <t>我偌无梦</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>nzmzd对不队</t>
+          <t>北极星Cassiopeia</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2775,15 +2775,15 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>我想当理塘高手</t>
+          <t>唤灵</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>nzmzd对不队</t>
+          <t>非日常麻雀结社</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2850,15 +2850,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>白子</t>
+          <t>无望</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>nzmzd对不队</t>
+          <t>非日常麻雀结社</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2925,71 +2925,335 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>白子</t>
+          <t>mr道标</t>
         </is>
       </c>
       <c r="D34" t="n">
+        <v>6</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>非日常麻雀结社</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>绫地宁宁nene</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>6</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>非日常麻雀结社</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>sengwei</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>6</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>非日常麻雀结社</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>洛铭轩</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>7</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>nzmzd对不队</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平地摔的saki</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>7</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>nzmzd对不队</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>我想当理塘高手</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>7</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>nzmzd对不队</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>席巴拉西</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>7</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>nzmzd对不队</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>能不能放个炮</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>7</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>nzmzd对不队</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>电脑</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
         <v>8</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>电脑</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3080,7 +3344,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>哈基土豆饼</t>
+          <t>哈基土豆咸水饼</t>
         </is>
       </c>
       <c r="C6" t="n">

--- a/output.xlsx
+++ b/output.xlsx
@@ -3011,18 +3011,60 @@
           <t>非日常麻雀结社</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3044,18 +3086,60 @@
           <t>非日常麻雀结社</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3077,18 +3161,60 @@
           <t>nzmzd对不队</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3110,18 +3236,60 @@
           <t>nzmzd对不队</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3143,18 +3311,60 @@
           <t>nzmzd对不队</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3176,18 +3386,60 @@
           <t>nzmzd对不队</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3209,18 +3461,60 @@
           <t>nzmzd对不队</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3242,18 +3536,60 @@
           <t>电脑</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -563,31 +563,31 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>17.65%</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>11.76%</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>23.53%</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>11.76%</t>
         </is>
       </c>
     </row>
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-15.6</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1238,11 +1238,11 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1252,17 +1252,17 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
     </row>
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>45.45%</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hastur</t>
+          <t>Hastur132</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>IotatoJC</t>
+          <t>lotatoJC</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1737,14 +1737,14 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>54.9</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>23.53%</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>5.88%</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>5.88%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>47.06%</t>
         </is>
       </c>
     </row>
@@ -2187,14 +2187,14 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>58.8</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2213,31 +2213,31 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>林雨</t>
+          <t>林清雨</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -2412,10 +2412,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>-49.9</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2434,35 +2434,35 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>11.76%</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>23.53%</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>5.88%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>47.06%</t>
         </is>
       </c>
     </row>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-19.3</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2963,31 +2963,31 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>29.41%</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>11.76%</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>29.41%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>41.18%</t>
         </is>
       </c>
     </row>
@@ -3237,10 +3237,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-50.5</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -3259,35 +3259,35 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>45.45%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-15.6</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>-49.9</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>-19.3</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-50.5</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -750,7 +750,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>kl3000official</t>
+          <t>kl3000</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -788,11 +788,11 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -802,17 +802,17 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>55.56%</t>
         </is>
       </c>
     </row>
@@ -987,10 +987,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1013,31 +1013,31 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>54.55%</t>
         </is>
       </c>
     </row>
@@ -1437,14 +1437,14 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>54.9</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1463,31 +1463,31 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>哈基土豆饼</t>
+          <t>哈基土豆咸水饼</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>哈基土豆饼</t>
+          <t>哈基土豆咸水饼</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>哈基土豆饼</t>
+          <t>哈基土豆咸水饼</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>雨水磁浮202</t>
+          <t>雨水磁浮2024</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1883,18 +1883,18 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>哈基土豆饼</t>
+          <t>哈基土豆咸水饼</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>52.7</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1913,31 +1913,31 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>哈基土豆饼</t>
+          <t>哈基土豆咸水饼</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2262,10 +2262,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-32.8</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2288,31 +2288,31 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
     </row>
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2584,11 +2584,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2597,12 +2597,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
     </row>
@@ -3012,10 +3012,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-18.5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3038,16 +3038,16 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3057,12 +3057,12 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -3387,10 +3387,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-32.8</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3409,25 +3409,25 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14.3</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-15.6</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="4">
@@ -3654,11 +3654,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nzmzd对不队</t>
+          <t>国士无双</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.3</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="5">
@@ -3667,11 +3667,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>国士无双</t>
+          <t>哈基土豆咸水饼</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54.9</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="6">
@@ -3680,11 +3680,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>哈基土豆咸水饼</t>
+          <t>狂勇carry</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58.8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -3693,11 +3693,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>狂勇carry</t>
+          <t>北极星Cassiopeia</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-49.9</v>
+        <v>-95.90000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3706,11 +3706,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>北极星Cassiopeia</t>
+          <t>非日常麻雀结社</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-19.3</v>
+        <v>-37.8</v>
       </c>
     </row>
     <row r="9">
@@ -3719,11 +3719,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>非日常麻雀结社</t>
+          <t>nzmzd对不队</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-50.5</v>
+        <v>-83.3</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-31.7</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -709,35 +709,35 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>21.05%</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>15.79%</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>15.79%</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>26.32%</t>
         </is>
       </c>
     </row>
@@ -1062,14 +1062,14 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>57.8</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1088,21 +1088,21 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
     </row>
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>-15.6</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1238,11 +1238,11 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1252,17 +1252,17 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>15.0%</t>
         </is>
       </c>
     </row>
@@ -1362,14 +1362,14 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>61.4</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1388,11 +1388,11 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>30.77%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1402,17 +1402,17 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>30.77%</t>
         </is>
       </c>
     </row>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>54.9</v>
+        <v>109.9</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23.53%</t>
+          <t>30.77%</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>5.88%</t>
+          <t>3.85%</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>5.88%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>47.06%</t>
+          <t>38.46%</t>
         </is>
       </c>
     </row>
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>-49.6</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1984,25 +1984,25 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>30.0%</t>
         </is>
       </c>
     </row>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Flamingo_li</t>
+          <t>Flamingo_Li</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-15.2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2138,31 +2138,31 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
     </row>
@@ -2262,10 +2262,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>-32.8</v>
+        <v>-56</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2288,21 +2288,21 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>9.52%</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>9.52%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>-22.5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2663,11 +2663,11 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>46.15%</t>
         </is>
       </c>
     </row>
@@ -3087,10 +3087,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>-44.8</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3109,35 +3109,35 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>30.77%</t>
         </is>
       </c>
     </row>
@@ -3312,10 +3312,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3338,31 +3338,31 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>30.77%</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>30.77%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>23.08%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26.1</v>
+        <v>-5.600000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-4.9</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>62.2</v>
+        <v>123.6</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>107.6</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>-12.40000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-95.90000000000001</v>
+        <v>-118.4</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-37.8</v>
+        <v>-82.59999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-83.3</v>
+        <v>-77.40000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>7.3</v>
+        <v>18.7</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>26.09%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>8.7%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>21.74%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>45.45%</t>
+          <t>52.17%</t>
         </is>
       </c>
     </row>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-46.9</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2734,25 +2734,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>-19.3</v>
+        <v>-39</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2963,31 +2963,31 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>29.41%</t>
+          <t>20.69%</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>11.76%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>29.41%</t>
+          <t>20.69%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>41.18%</t>
+          <t>41.38%</t>
         </is>
       </c>
     </row>
@@ -3237,14 +3237,14 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>-50.5</v>
+        <v>4.700000000000003</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3259,35 +3259,35 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>26.09%</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>21.74%</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>21.74%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>45.45%</t>
+          <t>34.78%</t>
         </is>
       </c>
     </row>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>123.6</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-118.4</v>
+        <v>-165.3</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-82.59999999999999</v>
+        <v>-102.3</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-77.40000000000001</v>
+        <v>-22.2</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -837,14 +837,14 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>29.6</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -863,31 +863,31 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>26.32%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>15.79%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>15.79%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>42.11%</t>
         </is>
       </c>
     </row>
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-17.2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -938,11 +938,11 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1163,31 +1163,31 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>30.0%</t>
         </is>
       </c>
     </row>
@@ -1362,14 +1362,14 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>61.4</v>
+        <v>2.199999999999996</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1384,15 +1384,15 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>16.0%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>12.0%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>32.0%</t>
         </is>
       </c>
     </row>
@@ -1587,10 +1587,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>mudqpitty</t>
+          <t>muqdipitty</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1812,10 +1812,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-48.1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1834,35 +1834,35 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>-49.6</v>
+        <v>-35.6</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1984,35 +1984,35 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>22.73%</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>31.82%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>31.82%</t>
         </is>
       </c>
     </row>
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>58.8</v>
+        <v>135.9</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2213,31 +2213,31 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>34.78%</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>8.7%</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>39.13%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>34.78%</t>
         </is>
       </c>
     </row>
@@ -2262,14 +2262,14 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>-56</v>
+        <v>16.59999999999999</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2288,31 +2288,31 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>9.52%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.12%</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>9.52%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.3%</t>
         </is>
       </c>
     </row>
@@ -2637,14 +2637,14 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>-22.5</v>
+        <v>-8.699999999999989</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2654,40 +2654,40 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>18.75%</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>15.62%</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>46.15%</t>
+          <t>46.88%</t>
         </is>
       </c>
     </row>
@@ -3012,10 +3012,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>-18.5</v>
+        <v>-76.09999999999999</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3029,40 +3029,40 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>15.79%</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>21.05%</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>5.26%</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>42.11%</t>
         </is>
       </c>
     </row>
@@ -3087,10 +3087,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>-44.8</v>
+        <v>-34.3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3109,35 +3109,35 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>40.91%</t>
         </is>
       </c>
     </row>
@@ -3312,10 +3312,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>5.9</v>
+        <v>-19.2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3324,12 +3324,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3338,31 +3338,31 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>16.0%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>28.0%</t>
         </is>
       </c>
     </row>
@@ -3387,10 +3387,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>-32.8</v>
+        <v>-64.69999999999999</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3404,40 +3404,40 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>17.39%</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>13.04%</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>13.04%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>34.78%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-5.600000000000001</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>59.8</v>
+        <v>63.49999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>135</v>
+        <v>76.39999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>113</v>
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-12.40000000000001</v>
+        <v>137.3</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-165.3</v>
+        <v>-151.5</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-102.3</v>
+        <v>-149.4</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-22.2</v>
+        <v>-79.19999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>14.3</v>
+        <v>25.8</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -563,21 +563,21 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17.65%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>11.76%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>23.53%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>11.76%</t>
+          <t>16.67%</t>
         </is>
       </c>
     </row>
@@ -837,14 +837,14 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>29.6</v>
+        <v>-7.000000000000004</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -854,40 +854,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>26.32%</t>
+          <t>27.59%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>15.79%</t>
+          <t>10.34%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>15.79%</t>
+          <t>17.24%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>42.11%</t>
+          <t>37.93%</t>
         </is>
       </c>
     </row>
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>20.9</v>
+        <v>-44.7</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1159,35 +1159,35 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>23.81%</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>19.05%</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>19.05%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.699999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1238,31 +1238,31 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>22.58%</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>9.68%</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>25.81%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>25.81%</t>
         </is>
       </c>
     </row>
@@ -1437,10 +1437,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>54.9</v>
+        <v>139.1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1463,11 +1463,11 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-58.2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1534,25 +1534,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
     </row>
@@ -1662,10 +1662,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-53.2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1684,35 +1684,35 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>38.46%</t>
         </is>
       </c>
     </row>
@@ -1812,14 +1812,14 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>-48.1</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1834,35 +1834,35 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>22.73%</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>13.64%</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>45.45%</t>
         </is>
       </c>
     </row>
@@ -2337,10 +2337,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-10.8</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2349,12 +2349,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2363,31 +2363,31 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>4.55%</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>31.82%</t>
         </is>
       </c>
     </row>
@@ -2487,10 +2487,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-21.5</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2513,31 +2513,31 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
     </row>
@@ -2562,14 +2562,14 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>-46</v>
+        <v>13.7</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2584,25 +2584,25 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>40.0%</t>
         </is>
       </c>
     </row>
@@ -2787,10 +2787,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-32.8</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2813,31 +2813,31 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>30.43%</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>8.7%</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>39.13%</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>17.39%</t>
         </is>
       </c>
     </row>
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3188,26 +3188,26 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3462,14 +3462,14 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>58.1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3488,31 +3488,31 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>38.46%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>-1.100000000000005</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>63.49999999999999</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>76.39999999999999</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>78.90000000000001</v>
+        <v>74.70000000000002</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>137.3</v>
+        <v>126.5</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-151.5</v>
+        <v>-113.3</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-149.4</v>
+        <v>-182.2</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-79.19999999999999</v>
+        <v>-17.09999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>-31.7</v>
+        <v>-92.2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -699,25 +699,25 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>50.0%</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>50.0%</t>
-        </is>
-      </c>
       <c r="L4" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21.05%</t>
+          <t>18.42%</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>15.79%</t>
+          <t>18.42%</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>26.32%</t>
+          <t>31.58%</t>
         </is>
       </c>
     </row>
@@ -912,14 +912,14 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>-17.2</v>
+        <v>-30.7</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -929,40 +929,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>20.59%</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>20.59%</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>32.35%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>29.41%</t>
         </is>
       </c>
     </row>
@@ -1437,10 +1437,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>139.1</v>
+        <v>196.1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1463,31 +1463,31 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
+          <t>35.48%</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>9.68%</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>16.13%</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
           <t>36.36%</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>9.09%</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>18.18%</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>37.5%</t>
-        </is>
-      </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>45.16%</t>
         </is>
       </c>
     </row>
@@ -1512,14 +1512,14 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>-58.2</v>
+        <v>-5.900000000000006</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1534,25 +1534,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>19.05%</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>19.05%</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>23.81%</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>19.05%</t>
         </is>
       </c>
     </row>
@@ -1812,14 +1812,14 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8999999999999986</v>
+        <v>60.6</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1834,35 +1834,35 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>22.73%</t>
+          <t>26.47%</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>13.64%</t>
+          <t>8.82%</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>20.59%</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>55.56%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>45.45%</t>
+          <t>41.18%</t>
         </is>
       </c>
     </row>
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>-35.6</v>
+        <v>-24.9</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1984,35 +1984,35 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>25.71%</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>22.73%</t>
+          <t>17.14%</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>31.82%</t>
+          <t>25.71%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>31.82%</t>
+          <t>40.0%</t>
         </is>
       </c>
     </row>
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2063,11 +2063,11 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2077,17 +2077,17 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>-15.2</v>
+        <v>-8.299999999999999</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2138,31 +2138,31 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>15.79%</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>15.79%</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>15.79%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>21.05%</t>
         </is>
       </c>
     </row>
@@ -2637,57 +2637,57 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>-8.699999999999989</v>
+        <v>-52.99999999999999</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>42</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>21.43%</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>19.05%</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>26.19%</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>32</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>18.75%</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>15.62%</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>25.0%</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
-      </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>46.88%</t>
+          <t>47.62%</t>
         </is>
       </c>
     </row>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>-46.9</v>
+        <v>-64.8</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2729,35 +2729,35 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>19.05%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -2787,10 +2787,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G32" t="n">
-        <v>-32.8</v>
+        <v>-92.49999999999999</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2804,40 +2804,40 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>30.43%</t>
+          <t>20.83%</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>8.7%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>39.13%</t>
+          <t>29.17%</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>17.39%</t>
+          <t>35.42%</t>
         </is>
       </c>
     </row>
@@ -3312,10 +3312,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>-19.2</v>
+        <v>-31.9</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3324,12 +3324,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3338,31 +3338,31 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.42%</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>15.79%</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>16.0%</t>
+          <t>13.16%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>71.43%</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>28.0%</t>
+          <t>34.21%</t>
         </is>
       </c>
     </row>
@@ -3387,10 +3387,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>-64.69999999999999</v>
+        <v>-49.19999999999999</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3399,35 +3399,35 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>17.39%</t>
+          <t>22.86%</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>13.04%</t>
+          <t>11.43%</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>13.04%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>34.78%</t>
+          <t>45.71%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.100000000000005</v>
+        <v>-61.60000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10.1</v>
+        <v>-3.399999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>102.4</v>
+        <v>211.7</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>74.70000000000002</v>
+        <v>145.1</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>126.5</v>
+        <v>139.8999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-113.3</v>
+        <v>-175.5</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-182.2</v>
+        <v>-241.9</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-17.09999999999999</v>
+        <v>-14.29999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-26.2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -634,35 +634,35 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>17.86%</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>32.14%</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>21.43%</t>
         </is>
       </c>
     </row>
@@ -912,14 +912,14 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>-30.7</v>
+        <v>-82.59999999999999</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -929,40 +929,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20.59%</t>
+          <t>16.33%</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>20.59%</t>
+          <t>20.41%</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>32.35%</t>
+          <t>26.53%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>29.41%</t>
+          <t>30.61%</t>
         </is>
       </c>
     </row>
@@ -987,19 +987,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>10.7</v>
+        <v>61.40000000000001</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1013,31 +1013,31 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>29.17%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>54.55%</t>
+          <t>41.67%</t>
         </is>
       </c>
     </row>
@@ -1287,19 +1287,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>18.7</v>
+        <v>77.2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>26.09%</t>
+          <t>29.03%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>8.7%</t>
+          <t>6.45%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>21.74%</t>
+          <t>32.26%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>52.17%</t>
+          <t>48.39%</t>
         </is>
       </c>
     </row>
@@ -1587,10 +1587,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5999999999999996</v>
+        <v>12</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1613,11 +1613,11 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>12.0%</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1627,17 +1627,17 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>109.9</v>
+        <v>44.90000000000001</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1759,35 +1759,35 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
+          <t>23.08%</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>10.26%</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>17.95%</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
           <t>30.77%</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>3.85%</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>15.38%</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>37.5%</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>38.46%</t>
         </is>
       </c>
     </row>
@@ -1812,14 +1812,14 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>60.6</v>
+        <v>10.5</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1834,35 +1834,35 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>26.47%</t>
+          <t>23.81%</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>8.82%</t>
+          <t>11.9%</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>20.59%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>41.18%</t>
+          <t>40.48%</t>
         </is>
       </c>
     </row>
@@ -2262,24 +2262,24 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>16.59999999999999</v>
+        <v>28.09999999999999</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2288,31 +2288,31 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>24.39%</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>12.12%</t>
+          <t>12.2%</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>19.51%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>30.3%</t>
+          <t>34.15%</t>
         </is>
       </c>
     </row>
@@ -2337,10 +2337,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>-10.8</v>
+        <v>-26.7</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2349,12 +2349,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2363,31 +2363,31 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>25.71%</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>4.55%</t>
+          <t>11.43%</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>55.56%</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>31.82%</t>
+          <t>34.29%</t>
         </is>
       </c>
     </row>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>-64.8</v>
+        <v>-84.79999999999998</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2734,35 +2734,35 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>18.37%</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.24%</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>19.05%</t>
+          <t>20.41%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>24.49%</t>
         </is>
       </c>
     </row>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>-39</v>
+        <v>-58.9</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2963,31 +2963,31 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>20.69%</t>
+          <t>21.62%</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>8.11%</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>20.69%</t>
+          <t>27.03%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>41.38%</t>
+          <t>37.84%</t>
         </is>
       </c>
     </row>
@@ -3087,19 +3087,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>-34.3</v>
+        <v>35.2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3109,35 +3109,35 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>22.86%</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>11.43%</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>22.86%</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>40.91%</t>
+          <t>34.29%</t>
         </is>
       </c>
     </row>
@@ -3387,57 +3387,57 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G40" t="n">
-        <v>-49.19999999999999</v>
+        <v>12.60000000000001</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>22.86%</t>
+          <t>22.0%</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>11.43%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>16.0%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>45.71%</t>
+          <t>44.0%</t>
         </is>
       </c>
     </row>
@@ -3462,14 +3462,14 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>58.1</v>
+        <v>43.7</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3488,31 +3488,31 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>11.54%</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>15.38%</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>15.38%</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>15.38%</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>30.77%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-61.60000000000001</v>
+        <v>-87.80000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.399999999999999</v>
+        <v>-4.599999999999987</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>211.7</v>
+        <v>281.6</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>145.1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>139.8999999999999</v>
+        <v>135.5</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-175.5</v>
+        <v>-195.5</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-241.9</v>
+        <v>-192.3</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-14.29999999999999</v>
+        <v>33.10000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>25.8</v>
+        <v>-21.8</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -559,35 +559,35 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>15.91%</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>20.45%</t>
         </is>
       </c>
     </row>
@@ -837,14 +837,14 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.000000000000004</v>
+        <v>55</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -854,30 +854,30 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>27.59%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>10.34%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>17.24%</t>
+          <t>17.5%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>37.93%</t>
+          <t>32.5%</t>
         </is>
       </c>
     </row>
@@ -912,57 +912,57 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>-82.59999999999999</v>
+        <v>-88.69999999999999</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>64</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>14.06%</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>18.75%</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>25.0%</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>25.0%</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>50.0%</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>49</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>16.33%</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>20.41%</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>26.53%</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>30.61%</t>
+          <t>28.12%</t>
         </is>
       </c>
     </row>
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>-12.1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1238,31 +1238,31 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>22.58%</t>
+          <t>22.5%</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>9.68%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>25.81%</t>
+          <t>22.5%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>55.56%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>25.81%</t>
+          <t>30.0%</t>
         </is>
       </c>
     </row>
@@ -1287,19 +1287,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>77.2</v>
+        <v>175.5</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>29.03%</t>
+          <t>39.13%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>6.45%</t>
+          <t>6.52%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>32.26%</t>
+          <t>36.96%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>27.78%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>48.39%</t>
+          <t>43.48%</t>
         </is>
       </c>
     </row>
@@ -1512,19 +1512,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.900000000000006</v>
+        <v>1.899999999999994</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1534,35 +1534,35 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19.05%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>19.05%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>23.81%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19.05%</t>
+          <t>13.33%</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>44.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1759,35 +1759,35 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>22.92%</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>10.26%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>17.95%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>29.17%</t>
         </is>
       </c>
     </row>
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>-24.9</v>
+        <v>-58.90000000000001</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1974,45 +1974,45 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>25.71%</t>
+          <t>22.0%</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>17.14%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>25.71%</t>
+          <t>26.0%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>36.0%</t>
         </is>
       </c>
     </row>
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>6.5</v>
+        <v>-14.4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2049,45 +2049,45 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>20</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>15.0%</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>9</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>11.11%</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>11.11%</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>100.0%</t>
-        </is>
-      </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>20.0%</t>
         </is>
       </c>
     </row>
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.299999999999999</v>
+        <v>-34.3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2138,31 +2138,31 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15.79%</t>
+          <t>15.15%</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>15.79%</t>
+          <t>15.15%</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>15.79%</t>
+          <t>12.12%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>21.05%</t>
+          <t>24.24%</t>
         </is>
       </c>
     </row>
@@ -2487,10 +2487,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>-21.5</v>
+        <v>-79.7</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2504,40 +2504,40 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>26</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>11.54%</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>19.23%</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>11</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>9.09%</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>9.09%</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>18.18%</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>100.0%</t>
-        </is>
-      </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>30.77%</t>
         </is>
       </c>
     </row>
@@ -2562,14 +2562,14 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>13.7</v>
+        <v>-30.09999999999999</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2584,35 +2584,35 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>17.24%</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>13.79%</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>10.34%</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>41.38%</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>无望</t>
+          <t>妄谓</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -2862,19 +2862,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2888,31 +2888,31 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>36.0%</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>12.0%</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>28.0%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>32.0%</t>
         </is>
       </c>
     </row>
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3188,31 +3188,31 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>20.83%</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>12.5%</t>
         </is>
       </c>
     </row>
@@ -3387,57 +3387,57 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" t="n">
-        <v>12.60000000000001</v>
+        <v>-38.59999999999999</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>22.0%</t>
+          <t>19.67%</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>8.2%</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>16.0%</t>
+          <t>16.39%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>44.0%</t>
+          <t>42.62%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-87.80000000000001</v>
+        <v>-73.39999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-4.599999999999987</v>
+        <v>-26.29999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>281.6</v>
+        <v>387.6999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>47.59999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>135.5</v>
+        <v>88.59999999999998</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-195.5</v>
+        <v>-297.5</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-192.3</v>
+        <v>-109.4</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>33.10000000000001</v>
+        <v>-17.29999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>11.8</v>
+        <v>15.2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -774,12 +774,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -788,31 +788,31 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>7.14%</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>39.29%</t>
         </is>
       </c>
     </row>
@@ -912,57 +912,57 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>-88.69999999999999</v>
+        <v>-77.39999999999999</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14.06%</t>
+          <t>14.81%</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>18.75%</t>
+          <t>17.28%</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>41.67%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>28.12%</t>
+          <t>27.16%</t>
         </is>
       </c>
     </row>
@@ -1212,24 +1212,24 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>-12.1</v>
+        <v>61.99999999999999</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1238,31 +1238,31 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>22.5%</t>
+          <t>24.53%</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>5.66%</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>22.5%</t>
+          <t>22.64%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>53.85%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>30.19%</t>
         </is>
       </c>
     </row>
@@ -1287,24 +1287,24 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>175.5</v>
+        <v>147.2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>39.13%</t>
+          <t>35.59%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>6.52%</t>
+          <t>6.78%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>36.96%</t>
+          <t>32.2%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>27.78%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>43.48%</t>
+          <t>42.37%</t>
         </is>
       </c>
     </row>
@@ -1437,14 +1437,14 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>196.1</v>
+        <v>177.3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1463,31 +1463,31 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>35.48%</t>
+          <t>29.17%</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>9.68%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>16.13%</t>
+          <t>18.75%</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>35.71%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>45.16%</t>
+          <t>43.75%</t>
         </is>
       </c>
     </row>
@@ -1812,57 +1812,57 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>10.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>60.0%</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>59</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>27.12%</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>10.17%</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>20.34%</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
           <t>50.0%</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>50.0%</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>42</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>23.81%</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>11.9%</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>50.0%</t>
-        </is>
-      </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>40.48%</t>
+          <t>37.29%</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1887,14 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>52.7</v>
+        <v>-2.099999999999994</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1909,35 +1909,35 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>22.73%</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>40.91%</t>
         </is>
       </c>
     </row>
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>-14.4</v>
+        <v>-84.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2049,45 +2049,45 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>16.22%</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>13.51%</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>18.92%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>83.33%</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>27.03%</t>
         </is>
       </c>
     </row>
@@ -2337,10 +2337,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>-26.7</v>
+        <v>-17.7</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2349,12 +2349,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2363,31 +2363,31 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>25.71%</t>
+          <t>22.92%</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>11.43%</t>
+          <t>10.42%</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>18.75%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>63.64%</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>34.29%</t>
+          <t>29.17%</t>
         </is>
       </c>
     </row>
@@ -2412,10 +2412,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>-49.9</v>
+        <v>-174.5</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2438,31 +2438,31 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>11.76%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>23.53%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>5.88%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>47.06%</t>
+          <t>30.56%</t>
         </is>
       </c>
     </row>
@@ -2787,10 +2787,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G32" t="n">
-        <v>-92.49999999999999</v>
+        <v>-123.8</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2804,30 +2804,30 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>20.83%</t>
+          <t>20.69%</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>13.79%</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>29.17%</t>
+          <t>25.86%</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>35.42%</t>
+          <t>34.48%</t>
         </is>
       </c>
     </row>
@@ -3087,19 +3087,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36" t="n">
-        <v>35.2</v>
+        <v>118.4</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3109,25 +3109,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>22.86%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>11.43%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>22.86%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>34.29%</t>
+          <t>34.09%</t>
         </is>
       </c>
     </row>
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
-        <v>4.800000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3188,31 +3188,31 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>20.83%</t>
+          <t>24.24%</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>15.15%</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12.12%</t>
         </is>
       </c>
     </row>
@@ -3462,14 +3462,14 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>43.7</v>
+        <v>116.3</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3488,31 +3488,31 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>11.54%</t>
+          <t>19.44%</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>19.44%</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>22.22%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-73.39999999999998</v>
+        <v>-69.99999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-26.29999999999998</v>
+        <v>59.10000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>387.6999999999999</v>
+        <v>340.5999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>47.59999999999999</v>
+        <v>70.39999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>88.59999999999998</v>
+        <v>27.49999999999998</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-297.5</v>
+        <v>-422.0999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-109.4</v>
+        <v>-57.49999999999997</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-17.29999999999999</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>-21.8</v>
+        <v>-3.100000000000001</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -559,11 +559,11 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -572,22 +572,22 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>15.91%</t>
+          <t>14.55%</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>23.64%</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>20.45%</t>
+          <t>25.45%</t>
         </is>
       </c>
     </row>
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>-26.2</v>
+        <v>-101.1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -634,35 +634,35 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>17.86%</t>
+          <t>17.5%</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>17.5%</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>32.14%</t>
+          <t>27.5%</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>25.0%</t>
         </is>
       </c>
     </row>
@@ -987,19 +987,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>61.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1013,31 +1013,31 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>27.78%</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>29.17%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
           <t>33.33%</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>41.67%</t>
         </is>
       </c>
     </row>
@@ -1212,24 +1212,24 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>61.99999999999999</v>
+        <v>128.9</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1238,31 +1238,31 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>24.53%</t>
+          <t>26.56%</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>5.66%</t>
+          <t>4.69%</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>22.64%</t>
+          <t>20.31%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>53.85%</t>
+          <t>41.18%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>30.19%</t>
+          <t>34.38%</t>
         </is>
       </c>
     </row>
@@ -1287,24 +1287,24 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>147.2</v>
+        <v>171.9</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>35.59%</t>
+          <t>34.62%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>6.78%</t>
+          <t>5.13%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>32.2%</t>
+          <t>29.49%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>29.63%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>42.37%</t>
+          <t>39.74%</t>
         </is>
       </c>
     </row>
@@ -1362,14 +1362,14 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.199999999999996</v>
+        <v>84.19999999999999</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1384,35 +1384,35 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>16.0%</t>
+          <t>24.39%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>2.44%</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>12.0%</t>
+          <t>21.95%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>32.0%</t>
+          <t>31.71%</t>
         </is>
       </c>
     </row>
@@ -1737,19 +1737,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>96.5</v>
+        <v>112.7</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1759,35 +1759,35 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>22.92%</t>
+          <t>21.88%</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>10.94%</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>15.62%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>29.17%</t>
+          <t>31.25%</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1887,14 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.099999999999994</v>
+        <v>-25.79999999999999</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1904,40 +1904,40 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>22.73%</t>
+          <t>17.07%</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>14.63%</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>19.51%</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>71.43%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>40.91%</t>
+          <t>29.27%</t>
         </is>
       </c>
     </row>
@@ -2112,24 +2112,24 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>-34.3</v>
+        <v>47.40000000000001</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2138,31 +2138,31 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15.15%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>15.15%</t>
+          <t>13.33%</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>12.12%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>55.56%</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>24.24%</t>
+          <t>24.44%</t>
         </is>
       </c>
     </row>
@@ -2262,24 +2262,24 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>28.09999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2288,31 +2288,31 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>24.39%</t>
+          <t>26.92%</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>12.2%</t>
+          <t>13.46%</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>19.51%</t>
+          <t>17.31%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>34.15%</t>
+          <t>34.62%</t>
         </is>
       </c>
     </row>
@@ -2412,10 +2412,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>-174.5</v>
+        <v>-278.3</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2429,30 +2429,30 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>6.78%</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>23.73%</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>25.42%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>30.56%</t>
+          <t>27.12%</t>
         </is>
       </c>
     </row>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>-58.9</v>
+        <v>-120.8</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2954,40 +2954,40 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>21.62%</t>
+          <t>16.98%</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>8.11%</t>
+          <t>15.09%</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>27.03%</t>
+          <t>26.42%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>37.84%</t>
+          <t>32.08%</t>
         </is>
       </c>
     </row>
@@ -3012,10 +3012,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>-76.09999999999999</v>
+        <v>-151.1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3029,40 +3029,40 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>10.53%</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>23.68%</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>15.79%</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>21.05%</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>5.26%</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>42.11%</t>
+          <t>26.32%</t>
         </is>
       </c>
     </row>
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>-34.8</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3174,12 +3174,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3188,31 +3188,31 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>24.24%</t>
+          <t>20.41%</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>15.15%</t>
+          <t>16.33%</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>32.65%</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>12.12%</t>
+          <t>10.2%</t>
         </is>
       </c>
     </row>
@@ -3237,14 +3237,14 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>4.700000000000003</v>
+        <v>78.7</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3259,35 +3259,35 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>26.09%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>21.74%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>21.74%</t>
+          <t>19.05%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>34.78%</t>
+          <t>40.48%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-69.99999999999999</v>
+        <v>-126.2</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>59.10000000000001</v>
+        <v>150.1</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>340.5999999999999</v>
+        <v>447.3</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70.39999999999998</v>
+        <v>62.89999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27.49999999999998</v>
+        <v>96.49999999999997</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-422.0999999999999</v>
+        <v>-525.9</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-57.49999999999997</v>
+        <v>-194.3999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>52</v>
+        <v>89.7</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -762,24 +762,24 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>15.2</v>
+        <v>150.8</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -788,31 +788,31 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>34.78%</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>7.14%</t>
+          <t>8.7%</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>19.57%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>43.75%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>39.29%</t>
+          <t>39.13%</t>
         </is>
       </c>
     </row>
@@ -987,19 +987,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>85.5</v>
+        <v>30.2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1009,25 +1009,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>27.78%</t>
+          <t>22.73%</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>13.64%</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>31.82%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>31.82%</t>
         </is>
       </c>
     </row>
@@ -1062,14 +1062,14 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>57.8</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1084,15 +1084,15 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
     </row>
@@ -1287,24 +1287,24 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>171.9</v>
+        <v>244.5</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>34.62%</t>
+          <t>33.71%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5.13%</t>
+          <t>4.49%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>29.49%</t>
+          <t>29.21%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>29.63%</t>
+          <t>36.67%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>39.74%</t>
+          <t>41.57%</t>
         </is>
       </c>
     </row>
@@ -1437,14 +1437,14 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>177.3</v>
+        <v>151.9</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1463,31 +1463,31 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>29.17%</t>
+          <t>30.51%</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>8.47%</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>18.75%</t>
+          <t>18.64%</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>35.71%</t>
+          <t>38.89%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>43.75%</t>
+          <t>47.46%</t>
         </is>
       </c>
     </row>
@@ -1662,10 +1662,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>-53.2</v>
+        <v>-40</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1684,35 +1684,35 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>23.81%</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>9.52%</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>42.86%</t>
         </is>
       </c>
     </row>
@@ -1737,19 +1737,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>112.7</v>
+        <v>120.1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1759,35 +1759,35 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>21.88%</t>
+          <t>21.62%</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>10.94%</t>
+          <t>12.16%</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>15.62%</t>
+          <t>16.22%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>31.25%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>31.25%</t>
+          <t>32.43%</t>
         </is>
       </c>
     </row>
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>-84.5</v>
+        <v>-76</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2049,45 +2049,45 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>16.22%</t>
+          <t>20.83%</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>13.51%</t>
+          <t>10.42%</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>18.92%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>70.0%</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>27.03%</t>
+          <t>27.08%</t>
         </is>
       </c>
     </row>
@@ -2337,24 +2337,24 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>-17.7</v>
+        <v>58.89999999999999</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2363,31 +2363,31 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>22.92%</t>
+          <t>23.73%</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>10.42%</t>
+          <t>8.47%</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>18.75%</t>
+          <t>16.95%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>63.64%</t>
+          <t>64.29%</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29.17%</t>
+          <t>28.81%</t>
         </is>
       </c>
     </row>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G31" t="n">
-        <v>-84.79999999999998</v>
+        <v>-135.3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2724,45 +2724,45 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>18.37%</t>
+          <t>17.91%</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>12.24%</t>
+          <t>13.43%</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>20.41%</t>
+          <t>26.87%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>24.49%</t>
+          <t>20.9%</t>
         </is>
       </c>
     </row>
@@ -3012,10 +3012,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>-151.1</v>
+        <v>-203.8</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3029,30 +3029,30 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>10.53%</t>
+          <t>8.16%</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>23.68%</t>
+          <t>22.45%</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>15.79%</t>
+          <t>20.41%</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>26.32%</t>
+          <t>26.53%</t>
         </is>
       </c>
     </row>
@@ -3087,19 +3087,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G36" t="n">
         <v>118.4</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3109,11 +3109,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3127,17 +3127,17 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>21.82%</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>34.09%</t>
+          <t>36.36%</t>
         </is>
       </c>
     </row>
@@ -3312,10 +3312,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>-31.9</v>
+        <v>-60.3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3324,12 +3324,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3338,31 +3338,31 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>18.42%</t>
+          <t>16.33%</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>15.79%</t>
+          <t>12.24%</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>13.16%</t>
+          <t>12.24%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>34.21%</t>
+          <t>38.78%</t>
         </is>
       </c>
     </row>
@@ -3462,14 +3462,14 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>116.3</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3479,30 +3479,30 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19.44%</t>
+          <t>14.89%</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.64%</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>19.44%</t>
+          <t>19.15%</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>21.28%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-126.2</v>
+        <v>9.399999999999977</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>150.1</v>
+        <v>44.40000000000002</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>447.3</v>
+        <v>494.4999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>62.89999999999999</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>96.49999999999997</v>
+        <v>181.6</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-525.9</v>
+        <v>-576.4</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-194.3999999999999</v>
+        <v>-247.1</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>89.7</v>
+        <v>10.10000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.100000000000001</v>
+        <v>29</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -559,35 +559,35 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>21.74%</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>14.55%</t>
+          <t>11.59%</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>23.64%</t>
+          <t>21.74%</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>25.45%</t>
+          <t>30.43%</t>
         </is>
       </c>
     </row>
@@ -837,14 +837,14 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>55</v>
+        <v>115.9</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -854,40 +854,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>57</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>28.07%</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7.02%</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>19.3%</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
           <t>25.0%</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>25.0%</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>40</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>30.0%</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>17.5%</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>25.0%</t>
-        </is>
-      </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>32.5%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>-44.7</v>
+        <v>-35.39999999999999</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1159,35 +1159,35 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>23.81%</t>
+          <t>20.45%</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>19.05%</t>
+          <t>20.45%</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>19.05%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>18.18%</t>
         </is>
       </c>
     </row>
@@ -1437,14 +1437,14 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>151.9</v>
+        <v>215.2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1463,31 +1463,31 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>30.51%</t>
+          <t>31.51%</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>8.47%</t>
+          <t>8.22%</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>18.64%</t>
+          <t>20.55%</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>38.89%</t>
+          <t>43.48%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>47.46%</t>
+          <t>47.95%</t>
         </is>
       </c>
     </row>
@@ -1512,19 +1512,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>1.899999999999994</v>
+        <v>71.49999999999999</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1534,35 +1534,35 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>25.64%</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>12.82%</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
+          <t>28.21%</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>30.0%</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>13.33%</t>
+          <t>23.08%</t>
         </is>
       </c>
     </row>
@@ -1812,19 +1812,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>88.09999999999999</v>
+        <v>105.8</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1834,35 +1834,35 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>27.12%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>10.17%</t>
+          <t>9.21%</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>20.34%</t>
+          <t>18.42%</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>47.37%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>37.29%</t>
+          <t>34.21%</t>
         </is>
       </c>
     </row>
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>-58.90000000000001</v>
+        <v>-90.09999999999999</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1974,45 +1974,45 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>64</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>18.75%</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>15.62%</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>25.0%</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>25.0%</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>50</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>22.0%</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>26.0%</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>27.27%</t>
-        </is>
-      </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>36.0%</t>
+          <t>32.81%</t>
         </is>
       </c>
     </row>
@@ -2187,14 +2187,14 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>135.9</v>
+        <v>28.89999999999998</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2204,40 +2204,40 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>34.78%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>8.7%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>39.13%</t>
+          <t>37.04%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>58.33%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>34.78%</t>
+          <t>27.78%</t>
         </is>
       </c>
     </row>
@@ -2562,14 +2562,14 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>-30.09999999999999</v>
+        <v>-2.599999999999994</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2584,35 +2584,35 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>17.24%</t>
+          <t>18.33%</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>13.79%</t>
+          <t>18.33%</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>10.34%</t>
+          <t>18.33%</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>41.38%</t>
+          <t>45.0%</t>
         </is>
       </c>
     </row>
@@ -2787,10 +2787,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G32" t="n">
-        <v>-123.8</v>
+        <v>-159.1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2804,40 +2804,40 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>85.71%</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>20.69%</t>
+          <t>20.99%</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>13.79%</t>
+          <t>12.35%</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>25.86%</t>
+          <t>30.86%</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>47.06%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>34.48%</t>
+          <t>29.63%</t>
         </is>
       </c>
     </row>
@@ -3237,14 +3237,14 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>78.7</v>
+        <v>18</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3259,35 +3259,35 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>26.79%</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>19.05%</t>
+          <t>16.07%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>53.33%</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>40.48%</t>
+          <t>35.71%</t>
         </is>
       </c>
     </row>
@@ -3387,57 +3387,57 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G40" t="n">
-        <v>-38.59999999999999</v>
+        <v>-84.8</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19.67%</t>
+          <t>18.57%</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>8.2%</t>
+          <t>8.57%</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>16.39%</t>
+          <t>15.71%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.77%</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>42.62%</t>
+          <t>42.86%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.399999999999977</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44.40000000000002</v>
+        <v>53.70000000000002</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>494.4999999999999</v>
+        <v>627.3999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>83.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>181.6</v>
+        <v>74.59999999999997</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-576.4</v>
+        <v>-548.9</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-247.1</v>
+        <v>-282.4</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10.10000000000001</v>
+        <v>-96.79999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -687,57 +687,57 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>-92.2</v>
+        <v>-33.10000000000001</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>18.42%</t>
+          <t>21.67%</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>15.79%</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>18.42%</t>
+          <t>18.33%</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>38.46%</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>31.58%</t>
+          <t>36.67%</t>
         </is>
       </c>
     </row>
@@ -987,19 +987,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>30.2</v>
+        <v>89.90000000000002</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1009,35 +1009,35 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>22.73%</t>
+          <t>25.93%</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>13.64%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>31.82%</t>
+          <t>29.63%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>35.71%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>31.82%</t>
+          <t>31.48%</t>
         </is>
       </c>
     </row>
@@ -1062,14 +1062,14 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>7.399999999999999</v>
+        <v>-48.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1084,25 +1084,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>13.33%</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>26.67%</t>
         </is>
       </c>
     </row>
@@ -1287,24 +1287,24 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>244.5</v>
+        <v>310.6999999999999</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>33.71%</t>
+          <t>35.35%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4.49%</t>
+          <t>5.05%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>29.21%</t>
+          <t>28.28%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>36.67%</t>
+          <t>34.29%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>41.57%</t>
+          <t>43.43%</t>
         </is>
       </c>
     </row>
@@ -1362,19 +1362,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>84.19999999999999</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1384,35 +1384,35 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>24.39%</t>
+          <t>24.53%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2.44%</t>
+          <t>3.77%</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>21.95%</t>
+          <t>24.53%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>30.77%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>31.71%</t>
+          <t>33.96%</t>
         </is>
       </c>
     </row>
@@ -1737,57 +1737,57 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>120.1</v>
+        <v>130.4</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>84</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>21.43%</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>17.86%</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>74</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>21.62%</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>12.16%</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>16.22%</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>31.25%</t>
-        </is>
-      </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>32.43%</t>
+          <t>32.14%</t>
         </is>
       </c>
     </row>
@@ -1962,57 +1962,57 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>-90.09999999999999</v>
+        <v>-15.6</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>18.75%</t>
+          <t>20.27%</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>15.62%</t>
+          <t>14.86%</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>24.32%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>32.81%</t>
+          <t>31.08%</t>
         </is>
       </c>
     </row>
@@ -2262,47 +2262,47 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" t="n">
-        <v>15.4</v>
+        <v>-31.30000000000001</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>26.92%</t>
+          <t>22.58%</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>13.46%</t>
+          <t>12.9%</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>17.31%</t>
+          <t>20.97%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>34.62%</t>
+          <t>33.87%</t>
         </is>
       </c>
     </row>
@@ -2337,24 +2337,24 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>58.89999999999999</v>
+        <v>45.49999999999999</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2363,31 +2363,31 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23.73%</t>
+          <t>22.54%</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>8.47%</t>
+          <t>8.45%</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>16.95%</t>
+          <t>15.49%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>64.29%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>28.81%</t>
+          <t>29.58%</t>
         </is>
       </c>
     </row>
@@ -2637,14 +2637,14 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>-52.99999999999999</v>
+        <v>-75.89999999999998</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2654,40 +2654,40 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>21.15%</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>19.05%</t>
+          <t>21.15%</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>26.19%</t>
+          <t>28.85%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>47.62%</t>
+          <t>44.23%</t>
         </is>
       </c>
     </row>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>-135.3</v>
+        <v>-156.4</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2724,45 +2724,45 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>71.43%</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>17.91%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>13.43%</t>
+          <t>11.69%</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>26.87%</t>
+          <t>25.97%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20.9%</t>
+          <t>20.78%</t>
         </is>
       </c>
     </row>
@@ -2862,57 +2862,57 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>82.89999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>36.0%</t>
+          <t>27.66%</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>12.0%</t>
+          <t>17.02%</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>28.0%</t>
+          <t>27.66%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>53.85%</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>32.0%</t>
+          <t>29.79%</t>
         </is>
       </c>
     </row>
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37" t="n">
-        <v>-34.8</v>
+        <v>-30.5</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3174,12 +3174,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3188,31 +3188,31 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>20.41%</t>
+          <t>20.34%</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>16.33%</t>
+          <t>13.56%</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>32.65%</t>
+          <t>33.9%</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>10.2%</t>
+          <t>11.86%</t>
         </is>
       </c>
     </row>
@@ -3462,14 +3462,14 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41" t="n">
-        <v>65.09999999999999</v>
+        <v>16.19999999999999</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3479,40 +3479,40 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>14.89%</t>
+          <t>14.04%</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>10.64%</t>
+          <t>14.04%</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>19.15%</t>
+          <t>17.54%</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>21.28%</t>
+          <t>21.05%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>102.4</v>
+        <v>161.5</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53.70000000000002</v>
+        <v>57.50000000000004</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>627.3999999999999</v>
+        <v>700.9999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>154.8</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>74.59999999999997</v>
+        <v>14.49999999999997</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-548.9</v>
+        <v>-592.9</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-282.4</v>
+        <v>-355</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-96.79999999999998</v>
+        <v>-141.4</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -990,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>89.90000000000002</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>310.6999999999999</v>
+        <v>310.7</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>-15.6</v>
+        <v>-15.60000000000001</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>10.3</v>
+        <v>10.29999999999999</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>5</v>
       </c>
       <c r="G41" t="n">
-        <v>16.19999999999999</v>
+        <v>16.2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57.50000000000004</v>
+        <v>57.50000000000003</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>700.9999999999999</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5">

--- a/output.xlsx
+++ b/output.xlsx
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-101.1</v>
+        <v>-103.4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -624,45 +624,45 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>19.4%</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>13.43%</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>23.88%</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>38.46%</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>26.87%</t>
         </is>
       </c>
     </row>
@@ -912,57 +912,57 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>-77.39999999999999</v>
+        <v>-66.8</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>28.57%</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>91</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>16.48%</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>16.48%</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>20.88%</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>81</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>14.81%</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>17.28%</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>22.22%</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>41.67%</t>
-        </is>
-      </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>27.16%</t>
+          <t>29.67%</t>
         </is>
       </c>
     </row>
@@ -1212,24 +1212,24 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>128.9</v>
+        <v>210.2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1238,31 +1238,31 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>26.56%</t>
+          <t>29.33%</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4.69%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>20.31%</t>
+          <t>17.33%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>41.18%</t>
+          <t>40.91%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>34.38%</t>
+          <t>40.0%</t>
         </is>
       </c>
     </row>
@@ -1512,57 +1512,57 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>71.49999999999999</v>
+        <v>59.19999999999999</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>54</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>22.22%</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>12.96%</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>24.07%</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>25.0%</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>25.0%</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>39</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>25.64%</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>12.82%</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>28.21%</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>30.0%</t>
-        </is>
-      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>22.22%</t>
         </is>
       </c>
     </row>
@@ -1587,19 +1587,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>12</v>
+        <v>90.3</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1613,11 +1613,11 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12.0%</t>
+          <t>24.32%</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1627,17 +1627,17 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>29.73%</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>32.43%</t>
         </is>
       </c>
     </row>
@@ -1737,19 +1737,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18" t="n">
-        <v>130.4</v>
+        <v>71.80000000000001</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1759,35 +1759,35 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>23.23%</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>17.17%</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>17.86%</t>
+          <t>20.2%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.43%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>32.14%</t>
+          <t>31.31%</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1887,14 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>-25.79999999999999</v>
+        <v>-99</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1904,30 +1904,30 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>17.07%</t>
+          <t>13.21%</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>14.63%</t>
+          <t>15.09%</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>19.51%</t>
+          <t>20.75%</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>29.27%</t>
+          <t>28.3%</t>
         </is>
       </c>
     </row>
@@ -2187,14 +2187,14 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>28.89999999999998</v>
+        <v>-25.40000000000002</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2204,40 +2204,40 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>21.88%</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>21.88%</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>37.04%</t>
+          <t>34.38%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>27.78%</t>
+          <t>31.25%</t>
         </is>
       </c>
     </row>
@@ -2262,47 +2262,47 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>-31.30000000000001</v>
+        <v>-95.90000000000001</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>22.58%</t>
+          <t>19.18%</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>12.9%</t>
+          <t>15.07%</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>20.97%</t>
+          <t>21.92%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>33.87%</t>
+          <t>31.51%</t>
         </is>
       </c>
     </row>
@@ -2412,57 +2412,57 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G27" t="n">
-        <v>-278.3</v>
+        <v>-202.4</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>6.78%</t>
+          <t>11.25%</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>23.73%</t>
+          <t>17.5%</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>25.42%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>27.12%</t>
+          <t>28.75%</t>
         </is>
       </c>
     </row>
@@ -2787,10 +2787,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G32" t="n">
-        <v>-159.1</v>
+        <v>-207.9999999999999</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2804,40 +2804,40 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>88.89%</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>20.99%</t>
+          <t>20.59%</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>12.35%</t>
+          <t>12.75%</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>30.86%</t>
+          <t>28.43%</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>47.06%</t>
+          <t>47.62%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>29.63%</t>
+          <t>31.37%</t>
         </is>
       </c>
     </row>
@@ -3312,10 +3312,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39" t="n">
-        <v>-60.3</v>
+        <v>-49.09999999999999</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3324,12 +3324,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3338,31 +3338,31 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>16.33%</t>
+          <t>18.03%</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>12.24%</t>
+          <t>13.11%</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>12.24%</t>
+          <t>16.39%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>72.73%</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>38.78%</t>
+          <t>34.43%</t>
         </is>
       </c>
     </row>
@@ -3387,57 +3387,57 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G40" t="n">
-        <v>-84.8</v>
+        <v>-27.9</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>18.57%</t>
+          <t>18.82%</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>8.57%</t>
+          <t>10.59%</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>15.71%</t>
+          <t>21.18%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>31.25%</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>36.47%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>161.5</v>
+        <v>159.2</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57.50000000000003</v>
+        <v>149.4</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>701</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>154.8</v>
+        <v>23.00000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14.49999999999997</v>
+        <v>-114.4</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-592.9</v>
+        <v>-517</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-355</v>
+        <v>-403.9</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-141.4</v>
+        <v>-73.30000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -762,57 +762,57 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>150.8</v>
+        <v>67.60000000000001</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>34.78%</t>
+          <t>26.39%</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>8.7%</t>
+          <t>9.72%</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>19.57%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>43.75%</t>
+          <t>42.11%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>39.13%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -987,57 +987,57 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>89.90000000000001</v>
+        <v>69.10000000000001</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>25.93%</t>
+          <t>23.19%</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>13.04%</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>29.63%</t>
+          <t>27.54%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>35.71%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>31.48%</t>
+          <t>30.43%</t>
         </is>
       </c>
     </row>
@@ -1212,24 +1212,24 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>210.2</v>
+        <v>225.1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1238,31 +1238,31 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>29.33%</t>
+          <t>31.03%</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>17.33%</t>
+          <t>16.09%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>40.91%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>40.23%</t>
         </is>
       </c>
     </row>
@@ -1362,19 +1362,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>91.59999999999999</v>
+        <v>157.4</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1384,35 +1384,35 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>24.53%</t>
+          <t>27.69%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>3.77%</t>
+          <t>3.08%</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>24.53%</t>
+          <t>24.62%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>33.96%</t>
+          <t>35.38%</t>
         </is>
       </c>
     </row>
@@ -1437,24 +1437,24 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>215.2</v>
+        <v>220.2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1463,31 +1463,31 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>31.51%</t>
+          <t>32.95%</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>8.22%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>20.55%</t>
+          <t>19.32%</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>43.48%</t>
+          <t>48.28%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>47.95%</t>
+          <t>48.86%</t>
         </is>
       </c>
     </row>
@@ -1737,19 +1737,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" t="n">
-        <v>71.80000000000001</v>
+        <v>30.40000000000001</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1759,35 +1759,35 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23.23%</t>
+          <t>22.81%</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>17.17%</t>
+          <t>15.79%</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>20.2%</t>
+          <t>18.42%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>30.43%</t>
+          <t>30.77%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>31.31%</t>
+          <t>31.58%</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1887,14 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>-99</v>
+        <v>-165.9</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1904,30 +1904,30 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>13.21%</t>
+          <t>10.77%</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>15.09%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>20.75%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>28.3%</t>
+          <t>24.62%</t>
         </is>
       </c>
     </row>
@@ -2112,19 +2112,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>47.40000000000001</v>
+        <v>-25.9</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2134,35 +2134,35 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>19.72%</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>13.33%</t>
+          <t>14.08%</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>22.54%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>24.44%</t>
+          <t>21.13%</t>
         </is>
       </c>
     </row>
@@ -2712,57 +2712,57 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G31" t="n">
-        <v>-156.4</v>
+        <v>-18.69999999999997</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>55.56%</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>24.27%</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>11.69%</t>
+          <t>10.68%</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>25.97%</t>
+          <t>25.24%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>36.0%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20.78%</t>
+          <t>25.24%</t>
         </is>
       </c>
     </row>
@@ -3012,10 +3012,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G35" t="n">
-        <v>-203.8</v>
+        <v>-217.6</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3029,40 +3029,40 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>8.16%</t>
+          <t>9.84%</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>22.45%</t>
+          <t>21.31%</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>20.41%</t>
+          <t>21.31%</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>83.33%</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>26.53%</t>
+          <t>26.23%</t>
         </is>
       </c>
     </row>
@@ -3087,19 +3087,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>118.4</v>
+        <v>175.6</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3109,35 +3109,35 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>25.71%</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>8.57%</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>21.82%</t>
+          <t>25.71%</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>38.89%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>35.71%</t>
         </is>
       </c>
     </row>
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G37" t="n">
-        <v>-30.5</v>
+        <v>-24.4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3174,12 +3174,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>83.33%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3188,31 +3188,31 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>20.34%</t>
+          <t>21.62%</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>13.56%</t>
+          <t>13.51%</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>33.9%</t>
+          <t>32.43%</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>11.86%</t>
+          <t>14.86%</t>
         </is>
       </c>
     </row>
@@ -3462,57 +3462,57 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G41" t="n">
-        <v>16.2</v>
+        <v>28.9</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>14.04%</t>
+          <t>14.71%</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>14.04%</t>
+          <t>13.24%</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>17.54%</t>
+          <t>17.65%</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>21.05%</t>
+          <t>22.06%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>159.2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>149.4</v>
+        <v>143.5</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>767</v>
+        <v>837.8</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23.00000000000001</v>
+        <v>-85.3</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-114.4</v>
+        <v>-187.7</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-517</v>
+        <v>-379.3</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-403.9</v>
+        <v>-360.4999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-73.30000000000001</v>
+        <v>-54.5</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -612,57 +612,57 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>-103.4</v>
+        <v>-105.9</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19.4%</t>
+          <t>17.24%</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>13.43%</t>
+          <t>13.79%</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>23.88%</t>
+          <t>21.84%</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>26.87%</t>
+          <t>26.44%</t>
         </is>
       </c>
     </row>
@@ -912,57 +912,57 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>-66.8</v>
+        <v>-3.899999999999999</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>16.48%</t>
+          <t>18.63%</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>16.48%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>20.88%</t>
+          <t>20.59%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>36.84%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>29.67%</t>
+          <t>31.37%</t>
         </is>
       </c>
     </row>
@@ -987,57 +987,57 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>69.10000000000001</v>
+        <v>79.50000000000001</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>23.19%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>13.04%</t>
+          <t>11.54%</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>27.54%</t>
+          <t>25.64%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>38.89%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>30.43%</t>
+          <t>35.9%</t>
         </is>
       </c>
     </row>
@@ -1287,24 +1287,24 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>310.7</v>
+        <v>294.1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>35.35%</t>
+          <t>35.45%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5.05%</t>
+          <t>6.36%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>28.28%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>34.29%</t>
+          <t>30.77%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>43.43%</t>
+          <t>43.64%</t>
         </is>
       </c>
     </row>
@@ -1362,57 +1362,57 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>157.4</v>
+        <v>145</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>27.69%</t>
+          <t>27.03%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>3.08%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>24.62%</t>
+          <t>24.32%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>35.0%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>35.38%</t>
+          <t>33.78%</t>
         </is>
       </c>
     </row>
@@ -1662,10 +1662,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>-40</v>
+        <v>-118.6</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1674,45 +1674,45 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>50.0%</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>50.0%</t>
-        </is>
-      </c>
       <c r="L17" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>23.81%</t>
+          <t>14.63%</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>17.07%</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>9.52%</t>
+          <t>7.32%</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>39.02%</t>
         </is>
       </c>
     </row>
@@ -2262,57 +2262,57 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G25" t="n">
-        <v>-95.90000000000001</v>
+        <v>-138.1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>19.18%</t>
+          <t>19.35%</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>15.07%</t>
+          <t>15.05%</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>21.92%</t>
+          <t>20.43%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>31.51%</t>
+          <t>34.41%</t>
         </is>
       </c>
     </row>
@@ -2637,57 +2637,57 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G30" t="n">
-        <v>-75.89999999999998</v>
+        <v>-4.499999999999972</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>21.15%</t>
+          <t>23.61%</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>21.15%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>28.85%</t>
+          <t>29.17%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>52.94%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>44.23%</t>
+          <t>40.28%</t>
         </is>
       </c>
     </row>
@@ -2787,10 +2787,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>-207.9999999999999</v>
+        <v>-230.8</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2804,40 +2804,40 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>88.89%</t>
+          <t>90.0%</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>20.59%</t>
+          <t>20.35%</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>12.75%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>28.43%</t>
+          <t>29.2%</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>47.62%</t>
+          <t>47.83%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>31.37%</t>
+          <t>28.32%</t>
         </is>
       </c>
     </row>
@@ -3087,19 +3087,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G36" t="n">
-        <v>175.6</v>
+        <v>247.8</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3109,35 +3109,35 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>25.71%</t>
+          <t>29.11%</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>8.57%</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>25.71%</t>
+          <t>26.58%</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>38.89%</t>
+          <t>39.13%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>35.71%</t>
+          <t>34.18%</t>
         </is>
       </c>
     </row>
@@ -3237,19 +3237,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G38" t="n">
-        <v>18</v>
+        <v>25.5</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3259,35 +3259,35 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>26.79%</t>
+          <t>26.87%</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>14.93%</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>16.07%</t>
+          <t>14.93%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>53.33%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>35.71%</t>
+          <t>37.31%</t>
         </is>
       </c>
     </row>
@@ -3387,47 +3387,47 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G40" t="n">
-        <v>-27.9</v>
+        <v>-77.19999999999999</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>18.82%</t>
+          <t>17.02%</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>10.59%</t>
+          <t>13.83%</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>21.18%</t>
+          <t>20.21%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>36.47%</t>
+          <t>39.36%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>143.5</v>
+        <v>216.8</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>837.8</v>
+        <v>808.8</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-85.3</v>
+        <v>-163.9</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-187.7</v>
+        <v>-229.9</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-379.3</v>
+        <v>-307.9</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-360.4999999999999</v>
+        <v>-311.1</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-54.5</v>
+        <v>-96.3</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>29</v>
+        <v>-9.599999999999998</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>71.43%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -559,35 +559,35 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21.74%</t>
+          <t>21.98%</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>11.59%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>21.74%</t>
+          <t>26.37%</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>35.0%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>30.43%</t>
+          <t>24.18%</t>
         </is>
       </c>
     </row>
@@ -1062,14 +1062,14 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>-48.5</v>
+        <v>-105.9</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1084,25 +1084,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13.33%</t>
+          <t>11.63%</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>18.6%</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>20.93%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>27.91%</t>
         </is>
       </c>
     </row>
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>-35.39999999999999</v>
+        <v>-17.59999999999999</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1159,35 +1159,35 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>20.45%</t>
+          <t>23.64%</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>20.45%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>25.45%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>38.46%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>20.0%</t>
         </is>
       </c>
     </row>
@@ -1287,24 +1287,24 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>294.1</v>
+        <v>276.4</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>35.45%</t>
+          <t>34.68%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>6.36%</t>
+          <t>5.65%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>27.42%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>27.91%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>43.64%</t>
+          <t>41.13%</t>
         </is>
       </c>
     </row>
@@ -1362,57 +1362,57 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>27.03%</t>
+          <t>26.83%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>2.44%</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>24.32%</t>
+          <t>23.17%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>35.0%</t>
+          <t>40.91%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>33.78%</t>
+          <t>36.59%</t>
         </is>
       </c>
     </row>
@@ -1812,10 +1812,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>105.8</v>
+        <v>180.2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1834,35 +1834,35 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>24.49%</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>9.21%</t>
+          <t>8.16%</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>18.42%</t>
+          <t>19.39%</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>47.37%</t>
+          <t>41.67%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>34.21%</t>
+          <t>33.67%</t>
         </is>
       </c>
     </row>
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>-76</v>
+        <v>-152.4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2049,45 +2049,45 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>72</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>18.06%</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>16.67%</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>15.28%</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>76.92%</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>25.0%</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>25.0%</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>48</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>20.83%</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>10.42%</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>70.0%</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>27.08%</t>
         </is>
       </c>
     </row>
@@ -2637,57 +2637,57 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.499999999999972</v>
+        <v>71.70000000000003</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>23.61%</t>
+          <t>27.08%</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>29.17%</t>
+          <t>27.08%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>52.94%</t>
+          <t>42.31%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>40.28%</t>
+          <t>36.46%</t>
         </is>
       </c>
     </row>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>-120.8</v>
+        <v>-181.4</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2954,40 +2954,40 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16.98%</t>
+          <t>16.42%</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>15.09%</t>
+          <t>20.9%</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>26.42%</t>
+          <t>25.37%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>45.45%</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>32.08%</t>
+          <t>29.85%</t>
         </is>
       </c>
     </row>
@@ -3087,57 +3087,57 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G36" t="n">
-        <v>247.8</v>
+        <v>236.3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>29.11%</t>
+          <t>29.89%</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>26.58%</t>
+          <t>26.44%</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>39.13%</t>
+          <t>38.46%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>34.18%</t>
+          <t>34.48%</t>
         </is>
       </c>
     </row>
@@ -3312,24 +3312,24 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G39" t="n">
-        <v>-49.09999999999999</v>
+        <v>-9.29999999999999</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3338,31 +3338,31 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>18.03%</t>
+          <t>18.82%</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>13.11%</t>
+          <t>11.76%</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>16.39%</t>
+          <t>15.29%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>34.43%</t>
+          <t>32.94%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>73.5</v>
+        <v>34.89999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>216.8</v>
+        <v>177.2</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>808.8</v>
+        <v>845.0999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-163.9</v>
+        <v>-89.50000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-229.9</v>
+        <v>-306.3</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-307.9</v>
+        <v>-231.7</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-311.1</v>
+        <v>-383.2</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-96.3</v>
+        <v>-56.49999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -687,57 +687,57 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>-33.10000000000001</v>
+        <v>-123.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21.67%</t>
+          <t>18.68%</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>17.58%</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>18.33%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>41.18%</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>36.67%</t>
+          <t>34.07%</t>
         </is>
       </c>
     </row>
@@ -1212,24 +1212,24 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>225.1</v>
+        <v>158.7</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1238,31 +1238,31 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>31.03%</t>
+          <t>27.93%</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>8.11%</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>16.09%</t>
+          <t>18.02%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>41.94%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>40.23%</t>
+          <t>38.74%</t>
         </is>
       </c>
     </row>
@@ -1287,24 +1287,24 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>276.4</v>
+        <v>281.5</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>34.68%</t>
+          <t>30.99%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5.65%</t>
+          <t>4.93%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>27.42%</t>
+          <t>26.76%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>27.91%</t>
+          <t>29.55%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>41.13%</t>
+          <t>38.03%</t>
         </is>
       </c>
     </row>
@@ -1437,24 +1437,24 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>220.2</v>
+        <v>293.8</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1463,31 +1463,31 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>32.95%</t>
+          <t>33.66%</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>7.92%</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>19.32%</t>
+          <t>20.79%</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>48.28%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>48.86%</t>
+          <t>45.54%</t>
         </is>
       </c>
     </row>
@@ -1737,19 +1737,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>30.40000000000001</v>
+        <v>-44.39999999999998</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1759,25 +1759,25 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>22.81%</t>
+          <t>20.63%</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>15.79%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>18.42%</t>
+          <t>17.46%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>31.58%</t>
+          <t>32.54%</t>
         </is>
       </c>
     </row>
@@ -1962,57 +1962,57 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>-15.60000000000001</v>
+        <v>61.49999999999999</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>20.27%</t>
+          <t>22.09%</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>14.86%</t>
+          <t>16.28%</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>24.32%</t>
+          <t>23.26%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>36.84%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>31.08%</t>
+          <t>31.4%</t>
         </is>
       </c>
     </row>
@@ -2112,57 +2112,57 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>-25.9</v>
+        <v>-82.59999999999999</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>19.72%</t>
+          <t>19.28%</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>14.08%</t>
+          <t>16.87%</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>22.54%</t>
+          <t>22.89%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>56.25%</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>21.13%</t>
+          <t>19.28%</t>
         </is>
       </c>
     </row>
@@ -2337,24 +2337,24 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>45.49999999999999</v>
+        <v>126.6</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2363,31 +2363,31 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>22.54%</t>
+          <t>25.3%</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>8.45%</t>
+          <t>8.43%</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>15.49%</t>
+          <t>16.87%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29.58%</t>
+          <t>31.33%</t>
         </is>
       </c>
     </row>
@@ -2412,42 +2412,42 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27" t="n">
-        <v>-202.4</v>
+        <v>-191.4</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>11.25%</t>
+          <t>13.04%</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>15.22%</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2457,12 +2457,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>28.75%</t>
+          <t>29.35%</t>
         </is>
       </c>
     </row>
@@ -2637,57 +2637,57 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>71.70000000000003</v>
+        <v>100.4</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27.08%</t>
+          <t>27.78%</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>27.08%</t>
+          <t>25.93%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>42.31%</t>
+          <t>36.67%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>36.46%</t>
+          <t>37.04%</t>
         </is>
       </c>
     </row>
@@ -2862,57 +2862,57 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G33" t="n">
-        <v>10.29999999999999</v>
+        <v>-54.40000000000001</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>27.66%</t>
+          <t>24.36%</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>17.02%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>27.66%</t>
+          <t>28.21%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>53.85%</t>
+          <t>52.63%</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>29.79%</t>
+          <t>28.21%</t>
         </is>
       </c>
     </row>
@@ -3462,57 +3462,57 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G41" t="n">
-        <v>28.9</v>
+        <v>105.3</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>14.71%</t>
+          <t>19.19%</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>13.24%</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>17.65%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>36.84%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>22.06%</t>
+          <t>27.27%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34.89999999999999</v>
+        <v>-55.49999999999997</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>177.2</v>
+        <v>110.8</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>845.0999999999999</v>
+        <v>923.8</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-89.50000000000001</v>
+        <v>-87.2</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-306.3</v>
+        <v>-281.9</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-231.7</v>
+        <v>-192</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-383.2</v>
+        <v>-447.8999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-56.49999999999999</v>
+        <v>19.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -762,42 +762,42 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>67.60000000000001</v>
+        <v>137.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>26.39%</t>
+          <t>27.78%</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>9.72%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -807,12 +807,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>42.11%</t>
+          <t>44.0%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>34.44%</t>
         </is>
       </c>
     </row>
@@ -987,57 +987,57 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>79.50000000000001</v>
+        <v>66.90000000000002</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>21.59%</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>11.54%</t>
+          <t>10.23%</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>25.64%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>38.89%</t>
+          <t>42.11%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>35.9%</t>
+          <t>34.09%</t>
         </is>
       </c>
     </row>
@@ -1062,57 +1062,57 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>-105.9</v>
+        <v>-121.2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>60.0%</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>51</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>15.69%</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>19.61%</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>21.57%</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>25.0%</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>75.0%</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>43</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>11.63%</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>18.6%</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>20.93%</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>27.91%</t>
+          <t>27.45%</t>
         </is>
       </c>
     </row>
@@ -1287,24 +1287,24 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>281.5</v>
+        <v>341.2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>41.67%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>30.99%</t>
+          <t>30.67%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4.93%</t>
+          <t>5.33%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>26.76%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>29.55%</t>
+          <t>28.26%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>38.03%</t>
+          <t>38.0%</t>
         </is>
       </c>
     </row>
@@ -1437,57 +1437,57 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>293.8</v>
+        <v>239.1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>55.56%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>33.66%</t>
+          <t>31.53%</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>7.92%</t>
+          <t>9.01%</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>20.79%</t>
+          <t>20.72%</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>48.57%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>45.54%</t>
+          <t>43.24%</t>
         </is>
       </c>
     </row>
@@ -1812,19 +1812,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" t="n">
-        <v>180.2</v>
+        <v>98.39999999999999</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1834,35 +1834,35 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>24.49%</t>
+          <t>22.32%</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>8.16%</t>
+          <t>8.93%</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>19.39%</t>
+          <t>19.64%</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>41.67%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>33.67%</t>
+          <t>30.36%</t>
         </is>
       </c>
     </row>
@@ -1962,47 +1962,47 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G21" t="n">
-        <v>61.49999999999999</v>
+        <v>3.099999999999987</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>22.09%</t>
+          <t>19.59%</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>16.28%</t>
+          <t>17.53%</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>23.26%</t>
+          <t>20.62%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>31.4%</t>
+          <t>32.99%</t>
         </is>
       </c>
     </row>
@@ -2262,57 +2262,57 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G25" t="n">
-        <v>-138.1</v>
+        <v>-185.1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>19.35%</t>
+          <t>19.82%</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>15.05%</t>
+          <t>16.22%</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>20.43%</t>
+          <t>20.72%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>34.41%</t>
+          <t>35.14%</t>
         </is>
       </c>
     </row>
@@ -2412,57 +2412,57 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27" t="n">
-        <v>-191.4</v>
+        <v>-202</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13.04%</t>
+          <t>13.21%</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>15.22%</t>
+          <t>13.21%</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>25.47%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>29.35%</t>
+          <t>30.19%</t>
         </is>
       </c>
     </row>
@@ -2562,57 +2562,57 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.599999999999994</v>
+        <v>11.00000000000001</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>16.67%</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>71</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>21.13%</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>18.31%</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>21.13%</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
           <t>40.0%</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>60.0%</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>60</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>18.33%</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>18.33%</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>18.33%</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>36.36%</t>
-        </is>
-      </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>45.0%</t>
+          <t>45.07%</t>
         </is>
       </c>
     </row>
@@ -2937,14 +2937,14 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G34" t="n">
-        <v>-181.4</v>
+        <v>-40.30000000000001</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2954,40 +2954,40 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>16.42%</t>
+          <t>22.83%</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>20.9%</t>
+          <t>18.48%</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>25.37%</t>
+          <t>26.09%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>45.45%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>29.85%</t>
+          <t>33.7%</t>
         </is>
       </c>
     </row>
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G37" t="n">
-        <v>-24.4</v>
+        <v>-28.3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3174,12 +3174,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3188,31 +3188,31 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>21.62%</t>
+          <t>20.2%</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>13.51%</t>
+          <t>12.12%</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>32.43%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>35.0%</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>14.86%</t>
+          <t>18.18%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-55.49999999999997</v>
+        <v>14.40000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>110.8</v>
+        <v>82.90000000000002</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>923.8</v>
+        <v>928.8</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-87.2</v>
+        <v>-227.4</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-281.9</v>
+        <v>-328.9</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-192</v>
+        <v>-188.9999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-447.8999999999999</v>
+        <v>-306.7999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19.90000000000001</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -762,37 +762,37 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5</v>
+        <v>119.3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>27.78%</t>
+          <t>27.0%</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -802,17 +802,17 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>44.0%</t>
+          <t>40.74%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>34.44%</t>
+          <t>36.0%</t>
         </is>
       </c>
     </row>
@@ -837,14 +837,14 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>115.9</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -854,40 +854,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>28.07%</t>
+          <t>26.47%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>7.02%</t>
+          <t>8.82%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>19.3%</t>
+          <t>20.59%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>27.78%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>32.35%</t>
         </is>
       </c>
     </row>
@@ -912,57 +912,57 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.899999999999999</v>
+        <v>-25.7</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>18.63%</t>
+          <t>18.58%</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>16.81%</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>20.59%</t>
+          <t>20.35%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>36.84%</t>
+          <t>38.1%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>31.37%</t>
+          <t>31.86%</t>
         </is>
       </c>
     </row>
@@ -1062,14 +1062,14 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>-121.2</v>
+        <v>-194.1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1079,40 +1079,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>15.69%</t>
+          <t>14.71%</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>19.61%</t>
+          <t>19.12%</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>21.57%</t>
+          <t>23.53%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>25.0%</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>27.45%</t>
         </is>
       </c>
     </row>
@@ -1287,57 +1287,57 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="n">
-        <v>341.2</v>
+        <v>290.9</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>41.67%</t>
+          <t>38.46%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.77%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>7.69%</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>30.67%</t>
+          <t>29.19%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5.33%</t>
+          <t>4.97%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>26.09%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>28.26%</t>
+          <t>29.79%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>38.0%</t>
+          <t>38.51%</t>
         </is>
       </c>
     </row>
@@ -1512,57 +1512,57 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>59.19999999999999</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>21.88%</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>12.96%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>24.07%</t>
+          <t>26.56%</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.31%</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1887,14 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>-165.9</v>
+        <v>-150</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1904,40 +1904,40 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>10.77%</t>
+          <t>13.95%</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>12.79%</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>24.42%</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>24.62%</t>
+          <t>25.58%</t>
         </is>
       </c>
     </row>
@@ -2037,57 +2037,57 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>-152.4</v>
+        <v>-82.89999999999998</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>18.06%</t>
+          <t>20.43%</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>16.13%</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>15.28%</t>
+          <t>16.13%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>78.95%</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>24.73%</t>
         </is>
       </c>
     </row>
@@ -2562,19 +2562,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>11.00000000000001</v>
+        <v>-37.29999999999999</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2584,35 +2584,35 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>21.13%</t>
+          <t>19.51%</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>18.31%</t>
+          <t>17.07%</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>21.13%</t>
+          <t>19.51%</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>43.75%</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>45.07%</t>
+          <t>43.9%</t>
         </is>
       </c>
     </row>
@@ -2637,57 +2637,57 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>100.4</v>
+        <v>86.40000000000003</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27.78%</t>
+          <t>28.0%</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>25.93%</t>
+          <t>24.0%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>36.67%</t>
+          <t>37.14%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>37.04%</t>
+          <t>39.2%</t>
         </is>
       </c>
     </row>
@@ -2862,57 +2862,57 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G33" t="n">
-        <v>-54.40000000000001</v>
+        <v>76.99999999999999</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>24.36%</t>
+          <t>26.42%</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>13.21%</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>28.21%</t>
+          <t>25.47%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>52.63%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>28.21%</t>
+          <t>28.3%</t>
         </is>
       </c>
     </row>
@@ -3237,19 +3237,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G38" t="n">
-        <v>25.5</v>
+        <v>51.09999999999999</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3259,35 +3259,35 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>26.87%</t>
+          <t>25.26%</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>14.93%</t>
+          <t>14.74%</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>14.93%</t>
+          <t>17.89%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>37.31%</t>
+          <t>34.74%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14.40000000000001</v>
+        <v>-27.09999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>82.90000000000002</v>
+        <v>-11.80000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>928.8</v>
+        <v>884.9</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-227.4</v>
+        <v>-211.5</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-328.9</v>
+        <v>-259.4</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-188.9999999999999</v>
+        <v>-251.3</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-306.7999999999999</v>
+        <v>-175.4</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>41.6</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.599999999999998</v>
+        <v>-28.5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -549,45 +549,45 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21.98%</t>
+          <t>21.7%</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>15.09%</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>26.37%</t>
+          <t>24.53%</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>35.0%</t>
+          <t>34.78%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>24.18%</t>
+          <t>24.53%</t>
         </is>
       </c>
     </row>
@@ -762,57 +762,57 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>119.3</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>41.67%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>8.33%</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>120</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>25.83%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>10.0%</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>100</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>27.0%</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>10.0%</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>40.74%</t>
+          <t>35.48%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>36.0%</t>
+          <t>38.33%</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>92.60000000000001</v>
+        <v>129.2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -849,12 +849,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -863,31 +863,31 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>26.47%</t>
+          <t>29.23%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>8.82%</t>
+          <t>7.69%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>20.59%</t>
+          <t>18.46%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>27.78%</t>
+          <t>26.32%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>32.35%</t>
+          <t>33.85%</t>
         </is>
       </c>
     </row>
@@ -1062,14 +1062,14 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>-194.1</v>
+        <v>-121.2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1079,40 +1079,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>14.71%</t>
+          <t>15.69%</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>19.12%</t>
+          <t>19.61%</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>23.53%</t>
+          <t>21.57%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>27.45%</t>
         </is>
       </c>
     </row>
@@ -1137,57 +1137,57 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>-17.59999999999999</v>
+        <v>-10.49999999999999</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>0.0%</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>80.0%</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>23.64%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>19.23%</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>25.45%</t>
+          <t>26.92%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>38.89%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>17.95%</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
         <v>13</v>
       </c>
       <c r="G12" t="n">
-        <v>290.9</v>
+        <v>353.1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>38.46%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1309,35 +1309,35 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>7.69%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>29.19%</t>
+          <t>30.06%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4.97%</t>
+          <t>5.52%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>26.09%</t>
+          <t>25.77%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>29.79%</t>
+          <t>30.61%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>38.51%</t>
+          <t>38.04%</t>
         </is>
       </c>
     </row>
@@ -1362,57 +1362,57 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>199</v>
+        <v>256.3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>26.83%</t>
+          <t>27.96%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2.44%</t>
+          <t>3.23%</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>23.17%</t>
+          <t>24.73%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>40.91%</t>
+          <t>38.46%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>36.59%</t>
+          <t>37.63%</t>
         </is>
       </c>
     </row>
@@ -1512,57 +1512,57 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>65.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>12.5%</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>12.5%</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>84</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>21.43%</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>11.9%</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>29.76%</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>16.67%</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>64</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>21.88%</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>12.5%</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>26.56%</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>21.43%</t>
-        </is>
-      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20.31%</t>
+          <t>17.86%</t>
         </is>
       </c>
     </row>
@@ -1887,57 +1887,57 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>-150</v>
+        <v>-326.6</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>70.0%</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>118</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>17.8%</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>12.71%</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>27.12%</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
           <t>57.14%</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>86</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>13.95%</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>12.79%</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>24.42%</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>66.67%</t>
-        </is>
-      </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>25.58%</t>
+          <t>27.12%</t>
         </is>
       </c>
     </row>
@@ -2037,57 +2037,57 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>-82.89999999999998</v>
+        <v>8.100000000000023</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>20.43%</t>
+          <t>21.57%</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>16.13%</t>
+          <t>17.65%</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>16.13%</t>
+          <t>19.61%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>78.95%</t>
+          <t>86.36%</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>24.73%</t>
+          <t>23.53%</t>
         </is>
       </c>
     </row>
@@ -2187,14 +2187,14 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>-25.40000000000002</v>
+        <v>-77.90000000000002</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2204,40 +2204,40 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>16.67%</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>75</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
           <t>20.0%</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>40.0%</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>64</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>21.88%</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>21.88%</t>
+          <t>18.67%</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>34.38%</t>
+          <t>32.0%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>31.25%</t>
+          <t>29.33%</t>
         </is>
       </c>
     </row>
@@ -2262,57 +2262,57 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>-185.1</v>
+        <v>-237</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>41.67%</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>19.82%</t>
+          <t>18.55%</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>16.22%</t>
+          <t>16.13%</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>20.72%</t>
+          <t>19.35%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>34.78%</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>35.14%</t>
+          <t>33.87%</t>
         </is>
       </c>
     </row>
@@ -2637,57 +2637,57 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>86.40000000000003</v>
+        <v>100.4</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>28.0%</t>
+          <t>27.78%</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>24.0%</t>
+          <t>25.93%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>37.14%</t>
+          <t>36.67%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>39.2%</t>
+          <t>37.04%</t>
         </is>
       </c>
     </row>
@@ -2712,57 +2712,57 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G31" t="n">
-        <v>-18.69999999999997</v>
+        <v>-29.59999999999998</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>54.55%</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>24.27%</t>
+          <t>23.62%</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>10.68%</t>
+          <t>11.81%</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>25.24%</t>
+          <t>22.83%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>36.0%</t>
+          <t>43.33%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>25.24%</t>
+          <t>28.35%</t>
         </is>
       </c>
     </row>
@@ -2862,57 +2862,57 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33" t="n">
-        <v>76.99999999999999</v>
+        <v>4.399999999999991</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>26.42%</t>
+          <t>26.97%</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>13.21%</t>
+          <t>13.48%</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>25.47%</t>
+          <t>26.97%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>45.83%</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>28.3%</t>
+          <t>28.09%</t>
         </is>
       </c>
     </row>
@@ -3012,57 +3012,57 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G35" t="n">
-        <v>-217.6</v>
+        <v>-171.5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>0.0%</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>9.84%</t>
+          <t>15.29%</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>21.31%</t>
+          <t>17.65%</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>21.31%</t>
+          <t>21.18%</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>61.54%</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>26.23%</t>
+          <t>27.06%</t>
         </is>
       </c>
     </row>
@@ -3237,19 +3237,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G38" t="n">
-        <v>51.09999999999999</v>
+        <v>36.8</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3259,25 +3259,25 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>25.26%</t>
+          <t>25.64%</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>14.74%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>17.89%</t>
+          <t>17.95%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>34.74%</t>
+          <t>34.62%</t>
         </is>
       </c>
     </row>
@@ -3387,57 +3387,57 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>-77.19999999999999</v>
+        <v>-43.09999999999999</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>17.02%</t>
+          <t>17.95%</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>13.83%</t>
+          <t>13.68%</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>20.21%</t>
+          <t>19.66%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>31.25%</t>
+          <t>38.1%</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>39.36%</t>
+          <t>35.9%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-27.09999999999999</v>
+        <v>-45.80000000000004</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-11.80000000000001</v>
+        <v>68.20000000000002</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>884.9</v>
+        <v>1017.2</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-211.5</v>
+        <v>-388.1</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-259.4</v>
+        <v>-272.8</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-251.3</v>
+        <v>-248.1999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-175.4</v>
+        <v>-201.9</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>41.6</v>
+        <v>61.40000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -762,37 +762,37 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>82.89999999999999</v>
+        <v>119.3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>41.67%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>25.83%</t>
+          <t>27.0%</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -802,17 +802,17 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>35.48%</t>
+          <t>40.74%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>38.33%</t>
+          <t>36.0%</t>
         </is>
       </c>
     </row>
@@ -837,57 +837,57 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>129.2</v>
+        <v>142.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>29.23%</t>
+          <t>30.14%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>7.69%</t>
+          <t>8.22%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>18.46%</t>
+          <t>17.81%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>26.32%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>33.85%</t>
+          <t>34.25%</t>
         </is>
       </c>
     </row>
@@ -1137,19 +1137,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>-10.49999999999999</v>
+        <v>44.00000000000001</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1159,35 +1159,35 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>23.26%</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>19.23%</t>
+          <t>19.77%</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>26.92%</t>
+          <t>26.74%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>38.89%</t>
+          <t>35.0%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>17.95%</t>
+          <t>17.44%</t>
         </is>
       </c>
     </row>
@@ -1287,24 +1287,24 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>353.1</v>
+        <v>364.9999999999999</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>35.71%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>30.06%</t>
+          <t>29.55%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5.52%</t>
+          <t>5.68%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>25.77%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>30.61%</t>
+          <t>32.69%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>38.04%</t>
+          <t>38.07%</t>
         </is>
       </c>
     </row>
@@ -1512,57 +1512,57 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>78.40000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>16.67%</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>16.67%</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>64</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>21.88%</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>12.5%</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>12.5%</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>84</v>
-      </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>26.56%</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>21.43%</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>11.9%</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>29.76%</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>17.86%</t>
+          <t>20.31%</t>
         </is>
       </c>
     </row>
@@ -1887,57 +1887,57 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>-326.6</v>
+        <v>-291.5000000000001</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>70.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>17.8%</t>
+          <t>15.09%</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>12.71%</t>
+          <t>14.15%</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>27.12%</t>
+          <t>26.42%</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>27.12%</t>
+          <t>26.42%</t>
         </is>
       </c>
     </row>
@@ -2037,57 +2037,57 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>8.100000000000023</v>
+        <v>-98.89999999999998</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>21.57%</t>
+          <t>19.51%</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>17.65%</t>
+          <t>17.07%</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>19.61%</t>
+          <t>17.07%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>86.36%</t>
+          <t>81.25%</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>23.53%</t>
+          <t>24.39%</t>
         </is>
       </c>
     </row>
@@ -2262,57 +2262,57 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="n">
-        <v>-237</v>
+        <v>-288.9</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>7.69%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>41.67%</t>
+          <t>46.15%</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>17.52%</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>16.13%</t>
+          <t>16.06%</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>19.35%</t>
+          <t>18.25%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>34.78%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>33.87%</t>
+          <t>32.85%</t>
         </is>
       </c>
     </row>
@@ -2712,57 +2712,57 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31" t="n">
-        <v>-29.59999999999998</v>
+        <v>-51.29999999999998</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>54.55%</t>
+          <t>58.33%</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>23.62%</t>
+          <t>22.14%</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>11.81%</t>
+          <t>12.14%</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>22.83%</t>
+          <t>22.14%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>43.33%</t>
+          <t>45.16%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>28.35%</t>
+          <t>28.57%</t>
         </is>
       </c>
     </row>
@@ -3012,14 +3012,14 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G35" t="n">
-        <v>-171.5</v>
+        <v>-109.8</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3029,40 +3029,40 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>15.29%</t>
+          <t>19.39%</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>17.65%</t>
+          <t>16.33%</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>21.18%</t>
+          <t>19.39%</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>61.54%</t>
+          <t>52.63%</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>27.06%</t>
+          <t>28.57%</t>
         </is>
       </c>
     </row>
@@ -3387,57 +3387,57 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G40" t="n">
-        <v>-43.09999999999999</v>
+        <v>-62.59999999999999</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>17.95%</t>
+          <t>18.4%</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>13.68%</t>
+          <t>14.4%</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>19.66%</t>
+          <t>18.4%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>38.1%</t>
+          <t>34.78%</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>35.9%</t>
+          <t>34.4%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-45.80000000000004</v>
+        <v>3.900000000000006</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>68.20000000000002</v>
+        <v>122.7</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1017.2</v>
+        <v>1016.3</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-388.1</v>
+        <v>-353.0000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-272.8</v>
+        <v>-431.6999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-248.1999999999999</v>
+        <v>-269.8999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-201.9</v>
+        <v>-140.2</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>61.40000000000001</v>
+        <v>41.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -840,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>142.5</v>
+        <v>105.9</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -849,45 +849,45 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>28.57%</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>14.29%</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>14.29%</t>
-        </is>
-      </c>
       <c r="L6" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>30.14%</t>
+          <t>27.63%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>8.22%</t>
+          <t>9.21%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>17.81%</t>
+          <t>19.74%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>34.25%</t>
+          <t>32.89%</t>
         </is>
       </c>
     </row>
@@ -1062,14 +1062,14 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>-121.2</v>
+        <v>-194.1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1079,40 +1079,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>15.69%</t>
+          <t>14.71%</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>19.61%</t>
+          <t>19.12%</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>21.57%</t>
+          <t>23.53%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>25.0%</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>27.45%</t>
         </is>
       </c>
     </row>
@@ -1137,19 +1137,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>44.00000000000001</v>
+        <v>-10.49999999999999</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1159,35 +1159,35 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>23.26%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>19.77%</t>
+          <t>19.23%</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>26.74%</t>
+          <t>26.92%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>35.0%</t>
+          <t>38.89%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>17.44%</t>
+          <t>17.95%</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
         <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>364.9999999999999</v>
+        <v>302.8</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>35.71%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1309,35 +1309,35 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>7.14%</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>29.55%</t>
+          <t>28.74%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5.68%</t>
+          <t>5.17%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>25.29%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>32.69%</t>
+          <t>32.0%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>38.07%</t>
+          <t>38.51%</t>
         </is>
       </c>
     </row>
@@ -1890,54 +1890,54 @@
         <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>-291.5000000000001</v>
+        <v>-185.6</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>22.22%</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>11.11%</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>11.11%</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>11.11%</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>55.56%</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>15.09%</t>
+          <t>15.6%</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>14.15%</t>
+          <t>11.93%</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>26.42%</t>
+          <t>25.69%</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>52.94%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>26.42%</t>
+          <t>26.61%</t>
         </is>
       </c>
     </row>
@@ -2037,57 +2037,57 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>-98.89999999999998</v>
+        <v>-82.89999999999998</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19.51%</t>
+          <t>20.43%</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>17.07%</t>
+          <t>16.13%</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>17.07%</t>
+          <t>16.13%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>81.25%</t>
+          <t>78.95%</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>24.39%</t>
+          <t>24.73%</t>
         </is>
       </c>
     </row>
@@ -2262,57 +2262,57 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>-288.9</v>
+        <v>-237</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>7.69%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>46.15%</t>
+          <t>41.67%</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>17.52%</t>
+          <t>18.55%</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>16.06%</t>
+          <t>16.13%</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>18.25%</t>
+          <t>19.35%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>34.78%</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>32.85%</t>
+          <t>33.87%</t>
         </is>
       </c>
     </row>
@@ -2637,57 +2637,57 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>100.4</v>
+        <v>86.40000000000003</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27.78%</t>
+          <t>28.0%</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>25.93%</t>
+          <t>24.0%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>36.67%</t>
+          <t>37.14%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>37.04%</t>
+          <t>39.2%</t>
         </is>
       </c>
     </row>
@@ -2712,57 +2712,57 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" t="n">
-        <v>-51.29999999999998</v>
+        <v>-29.59999999999997</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>54.55%</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>22.14%</t>
+          <t>23.62%</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>12.14%</t>
+          <t>11.81%</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>22.14%</t>
+          <t>22.83%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>45.16%</t>
+          <t>43.33%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>28.35%</t>
         </is>
       </c>
     </row>
@@ -2862,57 +2862,57 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G33" t="n">
-        <v>4.399999999999991</v>
+        <v>76.99999999999999</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>26.97%</t>
+          <t>26.42%</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>13.48%</t>
+          <t>13.21%</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>26.97%</t>
+          <t>25.47%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>45.83%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>28.09%</t>
+          <t>28.3%</t>
         </is>
       </c>
     </row>
@@ -3012,14 +3012,14 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G35" t="n">
-        <v>-109.8</v>
+        <v>-171.5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3029,40 +3029,40 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19.39%</t>
+          <t>15.29%</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>16.33%</t>
+          <t>17.65%</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>19.39%</t>
+          <t>21.18%</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>52.63%</t>
+          <t>61.54%</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>27.06%</t>
         </is>
       </c>
     </row>
@@ -3237,19 +3237,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G38" t="n">
-        <v>36.8</v>
+        <v>51.09999999999999</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3259,25 +3259,25 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>25.64%</t>
+          <t>25.26%</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>14.74%</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>17.95%</t>
+          <t>17.89%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>34.62%</t>
+          <t>34.74%</t>
         </is>
       </c>
     </row>
@@ -3387,57 +3387,57 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>-62.59999999999999</v>
+        <v>-43.09999999999999</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>18.4%</t>
+          <t>17.95%</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>14.4%</t>
+          <t>13.68%</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>18.4%</t>
+          <t>19.66%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>34.78%</t>
+          <t>38.1%</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>34.4%</t>
+          <t>35.9%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.900000000000006</v>
+        <v>-32.70000000000002</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>122.7</v>
+        <v>-4.699999999999989</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1016.3</v>
+        <v>954.0999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-353.0000000000001</v>
+        <v>-247.1</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-431.6999999999999</v>
+        <v>-363.8</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-269.8999999999999</v>
+        <v>-262.1999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-140.2</v>
+        <v>-129.3</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>41.90000000000001</v>
+        <v>75.7</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -762,57 +762,57 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>119.3</v>
+        <v>88.7</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>27.0%</t>
+          <t>26.02%</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>10.57%</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>21.95%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>40.74%</t>
+          <t>43.75%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>36.0%</t>
+          <t>38.21%</t>
         </is>
       </c>
     </row>
@@ -912,57 +912,57 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>-25.7</v>
+        <v>-48.09999999999999</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>18.58%</t>
+          <t>18.11%</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>16.81%</t>
+          <t>17.32%</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>20.35%</t>
+          <t>18.9%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>38.1%</t>
+          <t>34.78%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>31.86%</t>
+          <t>33.07%</t>
         </is>
       </c>
     </row>
@@ -1212,57 +1212,57 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>158.7</v>
+        <v>95.69999999999999</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>27.93%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>8.11%</t>
+          <t>9.17%</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>18.02%</t>
+          <t>17.5%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>41.94%</t>
+          <t>40.62%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>38.74%</t>
+          <t>38.33%</t>
         </is>
       </c>
     </row>
@@ -1362,57 +1362,57 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>256.3</v>
+        <v>189.8999999999999</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>55.56%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>27.96%</t>
+          <t>25.23%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>3.23%</t>
+          <t>6.54%</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>24.73%</t>
+          <t>23.36%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>37.04%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>37.63%</t>
+          <t>38.32%</t>
         </is>
       </c>
     </row>
@@ -1437,57 +1437,57 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>239.1</v>
+        <v>311.9</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>31.53%</t>
+          <t>32.5%</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>9.01%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>20.72%</t>
+          <t>22.5%</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>48.57%</t>
+          <t>46.15%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>43.24%</t>
+          <t>40.83%</t>
         </is>
       </c>
     </row>
@@ -1662,57 +1662,57 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>-118.6</v>
+        <v>-32.5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>14.63%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>17.07%</t>
+          <t>12.73%</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>7.32%</t>
+          <t>10.91%</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>39.02%</t>
+          <t>38.18%</t>
         </is>
       </c>
     </row>
@@ -1887,57 +1887,57 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>-185.6</v>
+        <v>-162.1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>15.6%</t>
+          <t>16.1%</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>11.93%</t>
+          <t>12.71%</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>25.69%</t>
+          <t>25.42%</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>52.94%</t>
+          <t>47.37%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>26.61%</t>
+          <t>25.42%</t>
         </is>
       </c>
     </row>
@@ -2112,57 +2112,57 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>-82.59999999999999</v>
+        <v>-85.69999999999999</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>19.28%</t>
+          <t>18.09%</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>16.87%</t>
+          <t>15.96%</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>22.89%</t>
+          <t>20.21%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>56.25%</t>
+          <t>58.82%</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>19.28%</t>
+          <t>25.53%</t>
         </is>
       </c>
     </row>
@@ -2337,57 +2337,57 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>126.6</v>
+        <v>84</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>25.3%</t>
+          <t>23.66%</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>8.43%</t>
+          <t>7.53%</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>16.87%</t>
+          <t>16.13%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>54.55%</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>31.33%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -2712,57 +2712,57 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G31" t="n">
-        <v>-29.59999999999997</v>
+        <v>37.40000000000003</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>54.55%</t>
+          <t>53.85%</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>7.69%</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>23.62%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>11.81%</t>
+          <t>10.81%</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>22.83%</t>
+          <t>22.97%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>43.33%</t>
+          <t>40.54%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>28.35%</t>
+          <t>27.7%</t>
         </is>
       </c>
     </row>
@@ -2787,10 +2787,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G32" t="n">
-        <v>-230.8</v>
+        <v>-225.9999999999999</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2799,45 +2799,45 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>90.0%</t>
+          <t>81.82%</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>20.35%</t>
+          <t>19.51%</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>11.38%</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>29.2%</t>
+          <t>29.27%</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>47.83%</t>
+          <t>45.83%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>28.32%</t>
+          <t>27.64%</t>
         </is>
       </c>
     </row>
@@ -3087,57 +3087,57 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G36" t="n">
-        <v>236.3</v>
+        <v>179.7</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>29.89%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>9.18%</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>26.44%</t>
+          <t>25.51%</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>39.29%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>34.48%</t>
+          <t>33.67%</t>
         </is>
       </c>
     </row>
@@ -3387,57 +3387,57 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G40" t="n">
-        <v>-43.09999999999999</v>
+        <v>-71.89999999999999</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>17.95%</t>
+          <t>17.19%</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>13.68%</t>
+          <t>14.06%</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>19.66%</t>
+          <t>20.31%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>38.1%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>35.9%</t>
+          <t>35.94%</t>
         </is>
       </c>
     </row>
@@ -3462,57 +3462,57 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G41" t="n">
-        <v>105.3</v>
+        <v>164.6</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19.19%</t>
+          <t>20.18%</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>10.1%</t>
+          <t>11.01%</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>19.27%</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>36.84%</t>
+          <t>40.91%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>27.52%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-32.70000000000002</v>
+        <v>-63.30000000000004</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-4.699999999999989</v>
+        <v>-90.10000000000002</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>954.0999999999998</v>
+        <v>960.4999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-247.1</v>
+        <v>-137.5</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-363.8</v>
+        <v>-409.5</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-262.1999999999999</v>
+        <v>-195.1999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-129.3</v>
+        <v>-181.0999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>75.7</v>
+        <v>106.2</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>-28.5</v>
+        <v>-74.89999999999999</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -549,45 +549,45 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>132</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>20.45%</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>13.64%</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>22.73%</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>25.0%</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>106</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>21.7%</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>15.09%</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>24.53%</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>34.78%</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>24.53%</t>
         </is>
       </c>
     </row>
@@ -612,47 +612,47 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>-105.9</v>
+        <v>-153.9</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>17.24%</t>
+          <t>14.85%</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>13.79%</t>
+          <t>14.85%</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>21.84%</t>
+          <t>23.76%</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>26.44%</t>
+          <t>27.72%</t>
         </is>
       </c>
     </row>
@@ -762,57 +762,57 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="n">
-        <v>88.7</v>
+        <v>158.4</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>30.77%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.77%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.77%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>7.69%</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>26.02%</t>
+          <t>27.54%</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>10.57%</t>
+          <t>10.14%</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>21.95%</t>
+          <t>21.74%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>43.75%</t>
+          <t>44.74%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>38.21%</t>
+          <t>39.13%</t>
         </is>
       </c>
     </row>
@@ -987,57 +987,57 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>66.90000000000002</v>
+        <v>193.6</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>112</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>25.0%</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>37.5%</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>25.0%</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>12.5%</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>88</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>21.59%</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>10.23%</t>
+          <t>8.93%</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>42.11%</t>
+          <t>39.29%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>34.09%</t>
+          <t>39.29%</t>
         </is>
       </c>
     </row>
@@ -1137,19 +1137,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>-10.49999999999999</v>
+        <v>57.60000000000001</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1159,35 +1159,35 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>28.09%</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>19.23%</t>
+          <t>20.22%</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>26.92%</t>
+          <t>28.09%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>38.89%</t>
+          <t>32.0%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>17.95%</t>
+          <t>19.1%</t>
         </is>
       </c>
     </row>
@@ -1212,57 +1212,57 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>95.69999999999999</v>
+        <v>164.5</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>27.07%</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>9.17%</t>
+          <t>8.27%</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>16.54%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>40.62%</t>
+          <t>38.89%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>38.33%</t>
+          <t>39.1%</t>
         </is>
       </c>
     </row>
@@ -1362,57 +1362,57 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>189.8999999999999</v>
+        <v>163.5999999999999</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>25.23%</t>
+          <t>24.17%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>6.54%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>23.36%</t>
+          <t>22.5%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>37.04%</t>
+          <t>34.48%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>38.32%</t>
+          <t>38.33%</t>
         </is>
       </c>
     </row>
@@ -1437,57 +1437,57 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>311.9</v>
+        <v>325.3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>54.55%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>32.5%</t>
+          <t>32.06%</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>8.4%</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>22.5%</t>
+          <t>23.66%</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>46.15%</t>
+          <t>47.62%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>40.83%</t>
+          <t>40.46%</t>
         </is>
       </c>
     </row>
@@ -1512,57 +1512,57 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>65.59999999999999</v>
+        <v>75.89999999999999</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21.88%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>10.67%</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>26.56%</t>
+          <t>24.0%</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20.31%</t>
+          <t>18.67%</t>
         </is>
       </c>
     </row>
@@ -1587,19 +1587,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>90.3</v>
+        <v>31.4</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1609,35 +1609,35 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>24.32%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>12.0%</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>29.73%</t>
+          <t>28.0%</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>32.43%</t>
+          <t>32.0%</t>
         </is>
       </c>
     </row>
@@ -1737,57 +1737,57 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G18" t="n">
-        <v>-44.39999999999998</v>
+        <v>-134.1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>30.77%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>7.69%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>38.46%</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20.63%</t>
+          <t>20.96%</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>16.17%</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>17.46%</t>
+          <t>15.57%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>32.54%</t>
+          <t>34.73%</t>
         </is>
       </c>
     </row>
@@ -1812,57 +1812,57 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>98.39999999999999</v>
+        <v>150.1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>126</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
           <t>22.22%</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>112</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>22.32%</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>8.93%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>19.64%</t>
+          <t>20.63%</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>39.29%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>30.36%</t>
+          <t>30.16%</t>
         </is>
       </c>
     </row>
@@ -2037,57 +2037,57 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>-82.89999999999998</v>
+        <v>-99.89999999999998</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>20.43%</t>
+          <t>19.81%</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>16.13%</t>
+          <t>15.09%</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>16.13%</t>
+          <t>18.87%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>78.95%</t>
+          <t>76.19%</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>24.73%</t>
+          <t>22.64%</t>
         </is>
       </c>
     </row>
@@ -2187,14 +2187,14 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G24" t="n">
-        <v>-77.90000000000002</v>
+        <v>24.09999999999998</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2204,40 +2204,40 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>24.14%</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>18.67%</t>
+          <t>17.24%</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>32.0%</t>
+          <t>32.18%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29.33%</t>
+          <t>32.18%</t>
         </is>
       </c>
     </row>
@@ -2262,57 +2262,57 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="n">
-        <v>-237</v>
+        <v>-227.5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>7.69%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>30.77%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>41.67%</t>
+          <t>38.46%</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>20.29%</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>16.13%</t>
+          <t>15.22%</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>19.35%</t>
+          <t>18.84%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>34.78%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>33.87%</t>
+          <t>34.06%</t>
         </is>
       </c>
     </row>
@@ -2337,47 +2337,47 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26" t="n">
-        <v>84</v>
+        <v>30.4</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23.66%</t>
+          <t>21.15%</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>7.53%</t>
+          <t>6.73%</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>16.13%</t>
+          <t>17.31%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>31.73%</t>
         </is>
       </c>
     </row>
@@ -2412,57 +2412,57 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>-202</v>
+        <v>-258.8</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13.21%</t>
+          <t>13.68%</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>13.21%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>25.47%</t>
+          <t>26.5%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>30.19%</t>
+          <t>29.06%</t>
         </is>
       </c>
     </row>
@@ -2637,57 +2637,57 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G30" t="n">
-        <v>86.40000000000003</v>
+        <v>117.7</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>28.0%</t>
+          <t>25.75%</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>13.17%</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>24.0%</t>
+          <t>23.95%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>37.14%</t>
+          <t>39.53%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>39.2%</t>
+          <t>36.53%</t>
         </is>
       </c>
     </row>
@@ -2787,10 +2787,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32" t="n">
-        <v>-225.9999999999999</v>
+        <v>-222.8</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2799,45 +2799,45 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>81.82%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>19.51%</t>
+          <t>19.12%</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>11.38%</t>
+          <t>11.03%</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>29.27%</t>
+          <t>30.15%</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>45.83%</t>
+          <t>46.15%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>27.64%</t>
+          <t>26.47%</t>
         </is>
       </c>
     </row>
@@ -2937,57 +2937,57 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G34" t="n">
-        <v>-40.30000000000001</v>
+        <v>-21.70000000000001</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>22.83%</t>
+          <t>22.86%</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>18.48%</t>
+          <t>16.19%</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>26.09%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>45.83%</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>33.7%</t>
+          <t>30.48%</t>
         </is>
       </c>
     </row>
@@ -3087,57 +3087,57 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>179.7</v>
+        <v>144.3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>9.18%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>25.51%</t>
+          <t>24.17%</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>39.29%</t>
+          <t>40.62%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>33.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G37" t="n">
-        <v>-28.3</v>
+        <v>-41.5</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3174,12 +3174,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3188,31 +3188,31 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>20.2%</t>
+          <t>20.35%</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>12.12%</t>
+          <t>12.39%</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>26.55%</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>35.0%</t>
+          <t>30.43%</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>20.35%</t>
         </is>
       </c>
     </row>
@@ -3312,24 +3312,24 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G39" t="n">
-        <v>-9.29999999999999</v>
+        <v>-54.69999999999999</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3338,31 +3338,31 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>18.82%</t>
+          <t>17.54%</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>11.76%</t>
+          <t>10.53%</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>15.29%</t>
+          <t>14.91%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>32.94%</t>
+          <t>28.95%</t>
         </is>
       </c>
     </row>
@@ -3462,47 +3462,47 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>164.6</v>
+        <v>81.99999999999997</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>20.18%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>11.01%</t>
+          <t>12.4%</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>19.27%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>27.52%</t>
+          <t>27.27%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-63.30000000000004</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-90.10000000000002</v>
+        <v>173.5</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>960.4999999999999</v>
+        <v>898.9999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-137.5</v>
+        <v>-175.5</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-409.5</v>
+        <v>-368.6</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-195.1999999999999</v>
+        <v>-220.6999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-181.0999999999999</v>
+        <v>-194.7</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>106.2</v>
+        <v>-35.00000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>-74.89999999999999</v>
+        <v>-88.99999999999999</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -549,45 +549,45 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>61.54%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>7.69%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>30.77%</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20.45%</t>
+          <t>19.88%</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>13.64%</t>
+          <t>12.05%</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>22.73%</t>
+          <t>20.48%</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>39.39%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>26.51%</t>
         </is>
       </c>
     </row>
@@ -612,24 +612,24 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>-153.9</v>
+        <v>-147.3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -638,31 +638,31 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>14.85%</t>
+          <t>13.39%</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>14.85%</t>
+          <t>14.17%</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>23.76%</t>
+          <t>26.77%</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>41.18%</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>27.72%</t>
+          <t>28.35%</t>
         </is>
       </c>
     </row>
@@ -762,57 +762,57 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>158.4</v>
+        <v>229.7</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>35.71%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>7.69%</t>
+          <t>7.14%</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>27.54%</t>
+          <t>26.75%</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>10.14%</t>
+          <t>9.55%</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>21.74%</t>
+          <t>21.66%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>44.74%</t>
+          <t>47.62%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>39.13%</t>
+          <t>36.31%</t>
         </is>
       </c>
     </row>
@@ -912,57 +912,57 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>-48.09999999999999</v>
+        <v>-26.4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>18.11%</t>
+          <t>19.42%</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>17.32%</t>
+          <t>15.83%</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>18.9%</t>
+          <t>17.99%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>34.78%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>33.07%</t>
+          <t>34.53%</t>
         </is>
       </c>
     </row>
@@ -987,57 +987,57 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>193.6</v>
+        <v>201</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>25.2%</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>8.93%</t>
+          <t>8.94%</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>21.95%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>39.29%</t>
+          <t>38.71%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>39.29%</t>
+          <t>37.4%</t>
         </is>
       </c>
     </row>
@@ -1062,57 +1062,57 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>-194.1</v>
+        <v>-185.3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>14.71%</t>
+          <t>15.85%</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>19.12%</t>
+          <t>18.29%</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>23.53%</t>
+          <t>25.61%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>38.46%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>26.83%</t>
         </is>
       </c>
     </row>
@@ -1137,19 +1137,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>57.60000000000001</v>
+        <v>125.7</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1159,35 +1159,35 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>28.09%</t>
+          <t>32.0%</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>20.22%</t>
+          <t>21.0%</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>28.09%</t>
+          <t>29.0%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>32.0%</t>
+          <t>28.12%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>19.1%</t>
+          <t>20.0%</t>
         </is>
       </c>
     </row>
@@ -1212,57 +1212,57 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>164.5</v>
+        <v>210.2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>35.71%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>35.71%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>7.14%</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>27.07%</t>
+          <t>26.06%</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>8.27%</t>
+          <t>7.27%</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>16.54%</t>
+          <t>15.76%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>38.89%</t>
+          <t>37.21%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>39.1%</t>
+          <t>39.39%</t>
         </is>
       </c>
     </row>
@@ -1287,57 +1287,57 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G12" t="n">
-        <v>302.8</v>
+        <v>318.3</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>35.71%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>35.71%</t>
+          <t>31.25%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>18.75%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>7.14%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>28.74%</t>
+          <t>27.5%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5.17%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>25.29%</t>
+          <t>24.0%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>32.0%</t>
+          <t>32.73%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>38.51%</t>
+          <t>37.0%</t>
         </is>
       </c>
     </row>
@@ -1362,57 +1362,57 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>163.5999999999999</v>
+        <v>137.2999999999999</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>45.45%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>24.17%</t>
+          <t>23.31%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>6.77%</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>22.5%</t>
+          <t>21.8%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>34.48%</t>
+          <t>32.26%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>38.33%</t>
+          <t>38.35%</t>
         </is>
       </c>
     </row>
@@ -1437,57 +1437,57 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>325.3</v>
+        <v>279.6</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>54.55%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>32.06%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>8.4%</t>
+          <t>8.67%</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>23.66%</t>
+          <t>24.0%</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>47.62%</t>
+          <t>51.11%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>40.46%</t>
+          <t>38.67%</t>
         </is>
       </c>
     </row>
@@ -1512,57 +1512,57 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>75.89999999999999</v>
+        <v>137.6</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.56%</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>10.67%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>24.0%</t>
+          <t>21.65%</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18.67%</t>
+          <t>16.49%</t>
         </is>
       </c>
     </row>
@@ -1737,57 +1737,57 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" t="n">
-        <v>-134.1</v>
+        <v>-160.7</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>7.69%</t>
+          <t>13.33%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20.96%</t>
+          <t>19.9%</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>16.17%</t>
+          <t>15.18%</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>15.57%</t>
+          <t>15.71%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>44.74%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>34.73%</t>
+          <t>33.51%</t>
         </is>
       </c>
     </row>
@@ -1812,10 +1812,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>150.1</v>
+        <v>154.6</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1834,35 +1834,35 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.78%</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>20.63%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>39.29%</t>
+          <t>40.62%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>30.16%</t>
+          <t>29.87%</t>
         </is>
       </c>
     </row>
@@ -1962,57 +1962,57 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>3.099999999999987</v>
+        <v>-36.10000000000001</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19.59%</t>
+          <t>19.51%</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>17.53%</t>
+          <t>18.7%</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>20.62%</t>
+          <t>21.14%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>36.84%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>32.99%</t>
+          <t>34.96%</t>
         </is>
       </c>
     </row>
@@ -2112,57 +2112,57 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" t="n">
-        <v>-85.69999999999999</v>
+        <v>-26.49999999999999</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>18.09%</t>
+          <t>18.52%</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>15.96%</t>
+          <t>14.81%</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>20.21%</t>
+          <t>21.3%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>58.82%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>25.53%</t>
+          <t>24.07%</t>
         </is>
       </c>
     </row>
@@ -2187,14 +2187,14 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>24.09999999999998</v>
+        <v>73.59999999999998</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2204,40 +2204,40 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>24.14%</t>
+          <t>26.13%</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>17.24%</t>
+          <t>16.22%</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>32.18%</t>
+          <t>30.63%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>55.17%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>32.18%</t>
+          <t>36.94%</t>
         </is>
       </c>
     </row>
@@ -2262,57 +2262,57 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>-227.5</v>
+        <v>-270.3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>7.69%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>20.29%</t>
+          <t>20.73%</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>15.22%</t>
+          <t>14.63%</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>18.84%</t>
+          <t>18.9%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>26.47%</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>34.06%</t>
+          <t>32.93%</t>
         </is>
       </c>
     </row>
@@ -2412,57 +2412,57 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
-        <v>-258.8</v>
+        <v>-332.4</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>7.69%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>46.15%</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13.68%</t>
+          <t>16.46%</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>16.46%</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>26.5%</t>
+          <t>25.95%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>42.31%</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>29.06%</t>
+          <t>31.01%</t>
         </is>
       </c>
     </row>
@@ -2487,10 +2487,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>-79.7</v>
+        <v>-92.8</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2504,40 +2504,40 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>3.85%</t>
+          <t>8.11%</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>11.54%</t>
+          <t>8.11%</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>19.23%</t>
+          <t>18.92%</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>29.73%</t>
         </is>
       </c>
     </row>
@@ -2562,19 +2562,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G29" t="n">
-        <v>-37.29999999999999</v>
+        <v>-27.39999999999999</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2584,35 +2584,35 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>19.51%</t>
+          <t>21.28%</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>17.07%</t>
+          <t>17.02%</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>19.51%</t>
+          <t>18.09%</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>43.75%</t>
+          <t>45.0%</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>43.9%</t>
+          <t>43.62%</t>
         </is>
       </c>
     </row>
@@ -2637,57 +2637,57 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G30" t="n">
-        <v>117.7</v>
+        <v>56.60000000000004</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>25.75%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>13.17%</t>
+          <t>15.56%</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>23.95%</t>
+          <t>23.33%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>39.53%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>36.53%</t>
+          <t>35.0%</t>
         </is>
       </c>
     </row>
@@ -2787,10 +2787,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G32" t="n">
-        <v>-222.8</v>
+        <v>-264.9</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2799,45 +2799,45 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>78.57%</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>7.14%</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>19.12%</t>
+          <t>19.14%</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>11.03%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>30.15%</t>
+          <t>32.1%</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>46.15%</t>
+          <t>41.94%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>26.47%</t>
+          <t>22.22%</t>
         </is>
       </c>
     </row>
@@ -2937,57 +2937,57 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>-21.70000000000001</v>
+        <v>60.69999999999999</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>22.86%</t>
+          <t>24.03%</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>16.19%</t>
+          <t>13.18%</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>27.13%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>45.83%</t>
+          <t>41.94%</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>30.48%</t>
+          <t>27.91%</t>
         </is>
       </c>
     </row>
@@ -3012,14 +3012,14 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G35" t="n">
-        <v>-171.5</v>
+        <v>-183.5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3029,40 +3029,40 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>15.29%</t>
+          <t>15.46%</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>17.65%</t>
+          <t>16.49%</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>21.18%</t>
+          <t>21.65%</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>61.54%</t>
+          <t>53.33%</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>27.06%</t>
+          <t>28.87%</t>
         </is>
       </c>
     </row>
@@ -3087,57 +3087,57 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36" t="n">
-        <v>144.3</v>
+        <v>122.7</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>25.19%</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>10.69%</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>24.17%</t>
+          <t>23.66%</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>40.62%</t>
+          <t>39.39%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>33.59%</t>
         </is>
       </c>
     </row>
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>-41.5</v>
+        <v>-46.7</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3174,12 +3174,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>63.64%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3188,31 +3188,31 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>20.35%</t>
+          <t>20.57%</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>12.39%</t>
+          <t>11.35%</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>26.55%</t>
+          <t>24.82%</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>30.43%</t>
+          <t>27.59%</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>20.35%</t>
+          <t>22.7%</t>
         </is>
       </c>
     </row>
@@ -3237,19 +3237,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G38" t="n">
-        <v>51.09999999999999</v>
+        <v>44.3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3259,35 +3259,35 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>25.26%</t>
+          <t>26.45%</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>14.74%</t>
+          <t>16.53%</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>17.89%</t>
+          <t>16.53%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>46.88%</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>34.74%</t>
+          <t>35.54%</t>
         </is>
       </c>
     </row>
@@ -3312,24 +3312,24 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>-54.69999999999999</v>
+        <v>11.20000000000002</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3338,31 +3338,31 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>17.54%</t>
+          <t>19.84%</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>10.53%</t>
+          <t>9.52%</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>14.91%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>55.0%</t>
+          <t>56.0%</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>28.95%</t>
+          <t>28.57%</t>
         </is>
       </c>
     </row>
@@ -3462,47 +3462,47 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G41" t="n">
-        <v>81.99999999999997</v>
+        <v>-0.6000000000000227</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>16.54%</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>12.4%</t>
+          <t>13.53%</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>20.3%</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>27.07%</t>
         </is>
       </c>
     </row>
@@ -3537,10 +3537,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>-65.40000000000001</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3559,20 +3559,20 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>11</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
           <t>0.0%</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-88</v>
+        <v>-24.20000000000002</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>173.5</v>
+        <v>315.2</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>898.9999999999998</v>
+        <v>904.1999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-175.5</v>
+        <v>-236.8</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-368.6</v>
+        <v>-368.1</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-220.6999999999999</v>
+        <v>-358.6</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-194.7</v>
+        <v>-188</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-35.00000000000001</v>
+        <v>-63.7</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>-88.99999999999999</v>
+        <v>-176.2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -549,45 +549,45 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>61.54%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>7.69%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>35.71%</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19.88%</t>
+          <t>18.86%</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>12.05%</t>
+          <t>13.71%</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>20.48%</t>
+          <t>22.29%</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>39.39%</t>
+          <t>42.42%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>26.51%</t>
+          <t>25.71%</t>
         </is>
       </c>
     </row>
@@ -612,47 +612,47 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>-147.3</v>
+        <v>-99.30000000000001</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>13.39%</t>
+          <t>15.04%</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>14.17%</t>
+          <t>13.27%</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>26.77%</t>
+          <t>25.66%</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>28.35%</t>
+          <t>27.43%</t>
         </is>
       </c>
     </row>
@@ -1062,57 +1062,57 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>-185.3</v>
+        <v>-230.8</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>15.85%</t>
+          <t>16.48%</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>18.29%</t>
+          <t>19.78%</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>25.61%</t>
+          <t>25.27%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>26.83%</t>
+          <t>28.57%</t>
         </is>
       </c>
     </row>
@@ -1140,11 +1140,11 @@
         <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>125.7</v>
+        <v>39.40000000000001</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1167,22 +1167,22 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>32.0%</t>
+          <t>28.0%</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>21.0%</t>
+          <t>19.0%</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>29.0%</t>
+          <t>28.0%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>28.12%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1212,57 +1212,57 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>210.2</v>
+        <v>141.4</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>35.71%</t>
+          <t>30.77%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>35.71%</t>
+          <t>38.46%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>7.14%</t>
+          <t>7.69%</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>26.06%</t>
+          <t>25.66%</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>7.27%</t>
+          <t>7.89%</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>15.76%</t>
+          <t>16.45%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>37.21%</t>
+          <t>38.46%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>39.39%</t>
+          <t>38.82%</t>
         </is>
       </c>
     </row>
@@ -1362,57 +1362,57 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>137.2999999999999</v>
+        <v>163.5999999999999</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>45.45%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>23.31%</t>
+          <t>24.17%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>6.77%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>21.8%</t>
+          <t>22.5%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>32.26%</t>
+          <t>34.48%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>38.35%</t>
+          <t>38.33%</t>
         </is>
       </c>
     </row>
@@ -1437,57 +1437,57 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>279.6</v>
+        <v>296.8</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>46.15%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>23.08%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>15.38%</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>15.38%</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>159</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>30.19%</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>9.43%</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>23.9%</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
           <t>50.0%</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>150</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>30.0%</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>8.67%</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>24.0%</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>51.11%</t>
-        </is>
-      </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>38.67%</t>
+          <t>38.36%</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
         <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>137.6</v>
+        <v>141.2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1538,31 +1538,31 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18.56%</t>
+          <t>19.39%</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>8.16%</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>21.65%</t>
+          <t>24.49%</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>31.58%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>16.49%</t>
+          <t>17.35%</t>
         </is>
       </c>
     </row>
@@ -1737,57 +1737,57 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" t="n">
-        <v>-160.7</v>
+        <v>-101.9</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.75%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>43.75%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>13.33%</t>
+          <t>6.25%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>31.25%</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19.9%</t>
+          <t>21.61%</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>15.18%</t>
+          <t>15.08%</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>15.71%</t>
+          <t>17.59%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>44.74%</t>
+          <t>41.86%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>33.51%</t>
+          <t>31.66%</t>
         </is>
       </c>
     </row>
@@ -1812,19 +1812,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>154.6</v>
+        <v>102.9</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>45.45%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1834,35 +1834,35 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20.78%</t>
+          <t>20.71%</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>12.86%</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>20.71%</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>40.62%</t>
+          <t>41.38%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>29.87%</t>
+          <t>30.0%</t>
         </is>
       </c>
     </row>
@@ -2112,57 +2112,57 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>-26.49999999999999</v>
+        <v>-53.69999999999999</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>18.52%</t>
+          <t>17.95%</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>14.81%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>21.3%</t>
+          <t>21.37%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>55.0%</t>
+          <t>52.38%</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>24.07%</t>
+          <t>23.93%</t>
         </is>
       </c>
     </row>
@@ -2190,11 +2190,11 @@
         <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>73.59999999999998</v>
+        <v>-76.90000000000002</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>55.56%</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>26.13%</t>
+          <t>21.62%</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2227,17 +2227,17 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>30.63%</t>
+          <t>29.73%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>55.17%</t>
+          <t>54.17%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>36.94%</t>
+          <t>35.14%</t>
         </is>
       </c>
     </row>
@@ -2262,57 +2262,57 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" t="n">
-        <v>-270.3</v>
+        <v>-279.8</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>7.14%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>20.73%</t>
+          <t>19.33%</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>14.63%</t>
+          <t>15.33%</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>18.9%</t>
+          <t>19.33%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>26.47%</t>
+          <t>31.03%</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>32.93%</t>
+          <t>32.67%</t>
         </is>
       </c>
     </row>
@@ -2412,57 +2412,57 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
-        <v>-332.4</v>
+        <v>-275.6</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>7.69%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>46.15%</t>
+          <t>41.67%</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>16.46%</t>
+          <t>16.33%</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>16.46%</t>
+          <t>14.97%</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>25.95%</t>
+          <t>25.17%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>42.31%</t>
+          <t>45.83%</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>31.01%</t>
+          <t>31.97%</t>
         </is>
       </c>
     </row>
@@ -2487,57 +2487,57 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" t="n">
-        <v>-92.8</v>
+        <v>-106.7</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>0.0%</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>8.11%</t>
+          <t>8.77%</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>8.11%</t>
+          <t>10.53%</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>18.92%</t>
+          <t>21.05%</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>29.73%</t>
+          <t>26.32%</t>
         </is>
       </c>
     </row>
@@ -2637,57 +2637,57 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" t="n">
-        <v>56.60000000000004</v>
+        <v>117.7</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>25.75%</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>15.56%</t>
+          <t>13.17%</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>23.33%</t>
+          <t>23.95%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>39.53%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>35.0%</t>
+          <t>36.53%</t>
         </is>
       </c>
     </row>
@@ -2937,57 +2937,57 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G34" t="n">
-        <v>60.69999999999999</v>
+        <v>95.99999999999997</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>24.03%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>13.18%</t>
+          <t>14.71%</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>27.13%</t>
+          <t>27.94%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>41.94%</t>
+          <t>41.18%</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>27.91%</t>
+          <t>29.41%</t>
         </is>
       </c>
     </row>
@@ -3087,57 +3087,57 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>122.7</v>
+        <v>144.3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
+          <t>36.36%</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>18.18%</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>27.27%</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>18.18%</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>120</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>26.67%</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>24.17%</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>40.62%</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
           <t>33.33%</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>131</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>25.19%</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>10.69%</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>23.66%</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>39.39%</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>33.59%</t>
         </is>
       </c>
     </row>
@@ -3165,54 +3165,54 @@
         <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>-46.7</v>
+        <v>25.9</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
+          <t>9.09%</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>63.64%</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>27.27%</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
           <t>0.0%</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>63.64%</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>36.36%</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
       <c r="L37" t="n">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>20.57%</t>
+          <t>22.06%</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>11.35%</t>
+          <t>10.29%</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>24.82%</t>
+          <t>24.26%</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>27.59%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>22.7%</t>
+          <t>22.79%</t>
         </is>
       </c>
     </row>
@@ -3312,24 +3312,24 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>11.20000000000002</v>
+        <v>67.90000000000002</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>54.55%</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3338,31 +3338,31 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19.84%</t>
+          <t>21.74%</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>9.52%</t>
+          <t>10.14%</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>18.12%</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>56.0%</t>
+          <t>56.67%</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>26.81%</t>
         </is>
       </c>
     </row>
@@ -3462,47 +3462,47 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.6000000000000227</v>
+        <v>81.99999999999997</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>121</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
           <t>18.18%</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>9.09%</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>36.36%</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>133</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>16.54%</t>
-        </is>
-      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>13.53%</t>
+          <t>12.4%</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>20.3%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>27.07%</t>
+          <t>27.27%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-24.20000000000002</v>
+        <v>-63.40000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>315.2</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>904.1999999999998</v>
+        <v>951.2999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-236.8</v>
+        <v>-229.7</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-368.1</v>
+        <v>-555.3</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-358.6</v>
+        <v>-254.5999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-188</v>
+        <v>-131.1</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-63.7</v>
+        <v>148.2</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -837,57 +837,57 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9</v>
+        <v>240.3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>55.56%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>27.63%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>9.21%</t>
+          <t>7.0%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>19.74%</t>
+          <t>21.0%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>32.89%</t>
+          <t>31.0%</t>
         </is>
       </c>
     </row>
@@ -912,57 +912,57 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>-26.4</v>
+        <v>-78.89999999999999</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>38.46%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>19.42%</t>
+          <t>19.02%</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>15.83%</t>
+          <t>16.56%</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>17.99%</t>
+          <t>19.02%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>38.71%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>34.53%</t>
+          <t>33.74%</t>
         </is>
       </c>
     </row>
@@ -1362,57 +1362,57 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>163.5999999999999</v>
+        <v>227.0999999999999</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>54.55%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>24.17%</t>
+          <t>26.36%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>22.5%</t>
+          <t>21.71%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>34.48%</t>
+          <t>32.35%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>38.33%</t>
+          <t>40.31%</t>
         </is>
       </c>
     </row>
@@ -1437,57 +1437,57 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>296.8</v>
+        <v>274.6999999999999</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>46.15%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>30.19%</t>
+          <t>30.99%</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>9.43%</t>
+          <t>9.36%</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>23.9%</t>
+          <t>23.98%</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>50.94%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>38.36%</t>
+          <t>38.6%</t>
         </is>
       </c>
     </row>
@@ -1812,19 +1812,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G19" t="n">
-        <v>102.9</v>
+        <v>-19.80000000000001</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>45.45%</t>
+          <t>38.46%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1834,25 +1834,25 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>46.15%</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20.71%</t>
+          <t>18.01%</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>12.86%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>20.71%</t>
+          <t>19.88%</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>27.33%</t>
         </is>
       </c>
     </row>
@@ -2112,57 +2112,57 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>-53.69999999999999</v>
+        <v>-80.09999999999999</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>45.45%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>17.95%</t>
+          <t>17.46%</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>15.08%</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>21.37%</t>
+          <t>20.63%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>52.38%</t>
+          <t>54.55%</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>23.93%</t>
+          <t>24.6%</t>
         </is>
       </c>
     </row>
@@ -2187,57 +2187,57 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>-76.90000000000002</v>
+        <v>-53.40000000000002</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>21.62%</t>
+          <t>21.95%</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>16.22%</t>
+          <t>15.45%</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>29.73%</t>
+          <t>29.27%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>54.17%</t>
+          <t>59.26%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>35.14%</t>
+          <t>34.96%</t>
         </is>
       </c>
     </row>
@@ -2487,57 +2487,57 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G28" t="n">
-        <v>-106.7</v>
+        <v>-22.49999999999999</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>8.77%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>10.53%</t>
+          <t>8.97%</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>21.05%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>41.67%</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>26.32%</t>
+          <t>28.21%</t>
         </is>
       </c>
     </row>
@@ -2787,10 +2787,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G32" t="n">
-        <v>-264.9</v>
+        <v>-248.7</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2799,45 +2799,45 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>78.57%</t>
+          <t>73.33%</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>7.14%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>19.14%</t>
+          <t>19.54%</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>11.49%</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>32.1%</t>
+          <t>32.76%</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>41.94%</t>
+          <t>41.18%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.69%</t>
         </is>
       </c>
     </row>
@@ -2937,57 +2937,57 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" t="n">
-        <v>95.99999999999997</v>
+        <v>76.29999999999997</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>41.67%</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>24.32%</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>14.71%</t>
+          <t>14.86%</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>27.94%</t>
+          <t>27.7%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>41.18%</t>
+          <t>38.89%</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>29.41%</t>
+          <t>29.05%</t>
         </is>
       </c>
     </row>
@@ -3162,57 +3162,57 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37" t="n">
-        <v>25.9</v>
+        <v>-24.4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>63.64%</t>
+          <t>58.33%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>22.06%</t>
+          <t>20.95%</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>10.29%</t>
+          <t>10.81%</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>24.26%</t>
+          <t>24.32%</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>29.03%</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>22.79%</t>
+          <t>22.3%</t>
         </is>
       </c>
     </row>
@@ -3237,57 +3237,57 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>44.3</v>
+        <v>16.2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>26.45%</t>
+          <t>25.56%</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>16.53%</t>
+          <t>15.79%</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>16.53%</t>
+          <t>16.54%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>46.88%</t>
+          <t>47.06%</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>35.54%</t>
+          <t>33.83%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-63.40000000000001</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>114.6</v>
+        <v>62.10000000000004</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>951.2999999999998</v>
+        <v>992.6999999999997</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-229.7</v>
+        <v>-352.4</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-555.3</v>
+        <v>-558.1999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-254.5999999999999</v>
+        <v>-170.3999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-131.1</v>
+        <v>-134.6</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>148.2</v>
+        <v>69.8</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -687,57 +687,57 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>-123.5</v>
+        <v>-175.7</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>18.68%</t>
+          <t>19.23%</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>17.58%</t>
+          <t>18.27%</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>25.96%</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>41.18%</t>
+          <t>45.0%</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>34.07%</t>
+          <t>32.69%</t>
         </is>
       </c>
     </row>
@@ -837,57 +837,57 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>240.3</v>
+        <v>189.2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>28.83%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>7.0%</t>
+          <t>9.01%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>21.0%</t>
+          <t>21.62%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>34.38%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>31.0%</t>
+          <t>28.83%</t>
         </is>
       </c>
     </row>
@@ -987,57 +987,57 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>201</v>
+        <v>253.5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>38.46%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>30.77%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>7.69%</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>25.2%</t>
+          <t>25.17%</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>8.94%</t>
+          <t>8.16%</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>21.95%</t>
+          <t>21.09%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>38.71%</t>
+          <t>35.14%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>37.4%</t>
+          <t>36.73%</t>
         </is>
       </c>
     </row>
@@ -1437,57 +1437,57 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>274.6999999999999</v>
+        <v>232.9999999999999</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>30.99%</t>
+          <t>29.67%</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>9.36%</t>
+          <t>9.34%</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>23.98%</t>
+          <t>24.18%</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>50.94%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>38.6%</t>
+          <t>37.91%</t>
         </is>
       </c>
     </row>
@@ -1512,57 +1512,57 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>141.2</v>
+        <v>156.4</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19.39%</t>
+          <t>19.44%</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>8.16%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>24.49%</t>
+          <t>24.07%</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>31.58%</t>
+          <t>38.1%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>17.35%</t>
+          <t>18.52%</t>
         </is>
       </c>
     </row>
@@ -1962,57 +1962,57 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
-        <v>-36.10000000000001</v>
+        <v>75.29999999999998</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19.51%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>18.7%</t>
+          <t>17.36%</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>21.14%</t>
+          <t>20.14%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>34.38%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>34.96%</t>
+          <t>37.5%</t>
         </is>
       </c>
     </row>
@@ -2037,57 +2037,57 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>-99.89999999999998</v>
+        <v>-123.8</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19.81%</t>
+          <t>19.33%</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>15.09%</t>
+          <t>15.97%</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>18.87%</t>
+          <t>19.33%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>76.19%</t>
+          <t>78.26%</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>22.64%</t>
+          <t>22.69%</t>
         </is>
       </c>
     </row>
@@ -2337,57 +2337,57 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>30.4</v>
+        <v>35.6</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>21.15%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>6.73%</t>
+          <t>6.96%</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>17.31%</t>
+          <t>17.39%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>54.55%</t>
+          <t>56.52%</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>31.73%</t>
+          <t>31.3%</t>
         </is>
       </c>
     </row>
@@ -2412,57 +2412,57 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
-        <v>-275.6</v>
+        <v>-333.6</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>7.69%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>41.67%</t>
+          <t>46.15%</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>16.33%</t>
+          <t>15.92%</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>14.97%</t>
+          <t>15.29%</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>25.17%</t>
+          <t>24.84%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>45.83%</t>
+          <t>44.0%</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>31.97%</t>
+          <t>31.21%</t>
         </is>
       </c>
     </row>
@@ -2562,57 +2562,57 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G29" t="n">
-        <v>-27.39999999999999</v>
+        <v>-43.59999999999999</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>21.28%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>17.02%</t>
+          <t>16.19%</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>18.09%</t>
+          <t>18.1%</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>45.0%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>43.62%</t>
+          <t>40.95%</t>
         </is>
       </c>
     </row>
@@ -2862,57 +2862,57 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G33" t="n">
-        <v>76.99999999999999</v>
+        <v>140.3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>26.42%</t>
+          <t>27.35%</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>13.21%</t>
+          <t>12.82%</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>25.47%</t>
+          <t>23.93%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>40.62%</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>28.3%</t>
+          <t>29.06%</t>
         </is>
       </c>
     </row>
@@ -3087,57 +3087,57 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36" t="n">
-        <v>144.3</v>
+        <v>150.5</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>27.07%</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>9.77%</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>24.17%</t>
+          <t>23.31%</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>40.62%</t>
+          <t>38.89%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>32.33%</t>
         </is>
       </c>
     </row>
@@ -3237,57 +3237,57 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G38" t="n">
-        <v>16.2</v>
+        <v>5.499999999999995</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>25.56%</t>
+          <t>25.97%</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>15.79%</t>
+          <t>16.23%</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>16.54%</t>
+          <t>17.53%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>47.06%</t>
+          <t>47.5%</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>33.83%</t>
+          <t>32.47%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>71</v>
+        <v>-32.30000000000004</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>62.10000000000004</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>992.6999999999997</v>
+        <v>966.1999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-352.4</v>
+        <v>-241</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-558.1999999999999</v>
+        <v>-576.9</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-170.3999999999999</v>
+        <v>-244.6</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-134.6</v>
+        <v>-65.10000000000002</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>69.8</v>
+        <v>59.09999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -762,57 +762,57 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>229.7</v>
+        <v>185.7</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>35.71%</t>
+          <t>31.25%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>31.25%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>7.14%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>26.75%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>9.55%</t>
+          <t>10.67%</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>21.66%</t>
+          <t>21.35%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>47.62%</t>
+          <t>47.73%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>36.31%</t>
+          <t>34.83%</t>
         </is>
       </c>
     </row>
@@ -987,57 +987,57 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>253.5</v>
+        <v>304.2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>7.69%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>25.17%</t>
+          <t>25.6%</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>8.16%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>21.09%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>35.14%</t>
+          <t>30.23%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>36.73%</t>
+          <t>36.9%</t>
         </is>
       </c>
     </row>
@@ -1437,57 +1437,57 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>232.9999999999999</v>
+        <v>312.8</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>43.75%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.75%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.75%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.75%</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>29.67%</t>
+          <t>30.89%</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>9.34%</t>
+          <t>9.42%</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>24.18%</t>
+          <t>23.56%</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>47.46%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>37.91%</t>
+          <t>37.7%</t>
         </is>
       </c>
     </row>
@@ -1512,57 +1512,57 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>156.4</v>
+        <v>146.9</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>45.45%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19.44%</t>
+          <t>19.17%</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>24.07%</t>
+          <t>23.33%</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>38.1%</t>
+          <t>39.13%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18.52%</t>
+          <t>20.0%</t>
         </is>
       </c>
     </row>
@@ -1737,57 +1737,57 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>-101.9</v>
+        <v>-119.8</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>18.75%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>43.75%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>6.25%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>31.25%</t>
+          <t>27.78%</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>21.61%</t>
+          <t>21.72%</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>15.08%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>17.59%</t>
+          <t>18.1%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>41.86%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>31.66%</t>
+          <t>31.67%</t>
         </is>
       </c>
     </row>
@@ -2112,47 +2112,47 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>-80.09999999999999</v>
+        <v>-129.6</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>45.45%</t>
+          <t>41.67%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>17.46%</t>
+          <t>15.71%</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>15.08%</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>20.63%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>24.6%</t>
+          <t>24.29%</t>
         </is>
       </c>
     </row>
@@ -2337,57 +2337,57 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>35.6</v>
+        <v>17.4</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>20.33%</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>6.96%</t>
+          <t>8.13%</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>17.39%</t>
+          <t>20.33%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>56.52%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>31.3%</t>
+          <t>31.71%</t>
         </is>
       </c>
     </row>
@@ -2712,57 +2712,57 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G31" t="n">
-        <v>37.40000000000003</v>
+        <v>57.20000000000002</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>13.33%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>53.85%</t>
+          <t>46.67%</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>7.69%</t>
+          <t>13.33%</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>24.71%</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>22.97%</t>
+          <t>23.53%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>40.54%</t>
+          <t>38.1%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>27.7%</t>
+          <t>26.47%</t>
         </is>
       </c>
     </row>
@@ -2862,47 +2862,47 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>140.3</v>
+        <v>50.89999999999998</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>27.35%</t>
+          <t>25.4%</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>12.82%</t>
+          <t>15.87%</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>23.93%</t>
+          <t>23.81%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>29.06%</t>
+          <t>28.57%</t>
         </is>
       </c>
     </row>
@@ -2937,57 +2937,57 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="n">
-        <v>76.29999999999997</v>
+        <v>88.69999999999997</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.77%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>41.67%</t>
+          <t>38.46%</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>24.32%</t>
+          <t>24.38%</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>14.86%</t>
+          <t>15.62%</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>27.7%</t>
+          <t>26.88%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>38.89%</t>
+          <t>35.9%</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>29.05%</t>
+          <t>30.0%</t>
         </is>
       </c>
     </row>
@@ -3162,57 +3162,57 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="n">
-        <v>-24.4</v>
+        <v>26.3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>53.85%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>7.69%</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>20.95%</t>
+          <t>21.15%</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>11.54%</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>24.32%</t>
+          <t>24.36%</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>29.03%</t>
+          <t>30.3%</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>22.3%</t>
+          <t>23.08%</t>
         </is>
       </c>
     </row>
@@ -3387,57 +3387,57 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" t="n">
-        <v>-71.89999999999999</v>
+        <v>-56.79999999999999</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>17.19%</t>
+          <t>17.61%</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>14.06%</t>
+          <t>13.38%</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>20.31%</t>
+          <t>19.72%</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>36.0%</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>35.94%</t>
+          <t>36.62%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-32.30000000000004</v>
+        <v>-76.30000000000004</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>114.6</v>
+        <v>165.3000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>966.1999999999998</v>
+        <v>1036.5</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-241</v>
+        <v>-258.9000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-576.9</v>
+        <v>-644.6</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-244.6</v>
+        <v>-224.8</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-65.10000000000002</v>
+        <v>-142.1</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>59.09999999999999</v>
+        <v>124.9</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -612,57 +612,57 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>-99.30000000000001</v>
+        <v>-40.10000000000001</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>15.04%</t>
+          <t>16.8%</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>13.27%</t>
+          <t>13.6%</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>25.66%</t>
+          <t>27.2%</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>41.18%</t>
+          <t>38.1%</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>27.43%</t>
+          <t>26.4%</t>
         </is>
       </c>
     </row>
@@ -687,57 +687,57 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>-175.7</v>
+        <v>-190.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19.23%</t>
+          <t>19.66%</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>18.27%</t>
+          <t>17.95%</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>25.96%</t>
+          <t>27.35%</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>45.0%</t>
+          <t>43.48%</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>32.69%</t>
+          <t>30.77%</t>
         </is>
       </c>
     </row>
@@ -912,57 +912,57 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>-78.89999999999999</v>
+        <v>-72.39999999999999</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>19.02%</t>
+          <t>18.6%</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>16.56%</t>
+          <t>16.86%</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>19.02%</t>
+          <t>20.93%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>38.71%</t>
+          <t>40.62%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>33.74%</t>
+          <t>32.56%</t>
         </is>
       </c>
     </row>
@@ -1062,57 +1062,57 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>-230.8</v>
+        <v>-294.2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>16.48%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>19.78%</t>
+          <t>19.23%</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>25.27%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>26.92%</t>
         </is>
       </c>
     </row>
@@ -1287,57 +1287,57 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>318.3</v>
+        <v>277.8</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>35.29%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>31.25%</t>
+          <t>29.41%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>18.75%</t>
+          <t>17.65%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>17.65%</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>27.23%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>5.63%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>24.0%</t>
+          <t>24.41%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>32.73%</t>
+          <t>31.03%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>37.0%</t>
+          <t>37.09%</t>
         </is>
       </c>
     </row>
@@ -1587,19 +1587,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>31.4</v>
+        <v>50.2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1609,35 +1609,35 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>22.58%</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>12.0%</t>
+          <t>9.68%</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>28.0%</t>
+          <t>27.42%</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>35.71%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>32.0%</t>
+          <t>29.03%</t>
         </is>
       </c>
     </row>
@@ -1662,57 +1662,57 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>-32.5</v>
+        <v>28.79999999999999</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>22.08%</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>12.73%</t>
+          <t>11.69%</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>10.91%</t>
+          <t>12.99%</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>41.18%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>38.18%</t>
+          <t>36.36%</t>
         </is>
       </c>
     </row>
@@ -2112,57 +2112,57 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="n">
-        <v>-129.6</v>
+        <v>-75.8</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>41.67%</t>
+          <t>38.46%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>15.71%</t>
+          <t>16.11%</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>14.77%</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>20.81%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>54.55%</t>
+          <t>54.17%</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>24.29%</t>
+          <t>22.82%</t>
         </is>
       </c>
     </row>
@@ -2187,57 +2187,57 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>-53.40000000000002</v>
+        <v>-78.20000000000002</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>45.45%</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>21.95%</t>
+          <t>21.32%</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>15.45%</t>
+          <t>13.97%</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>29.27%</t>
+          <t>27.21%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>59.26%</t>
+          <t>55.17%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>34.96%</t>
+          <t>34.56%</t>
         </is>
       </c>
     </row>
@@ -2637,57 +2637,57 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G30" t="n">
-        <v>117.7</v>
+        <v>67.50000000000004</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>31.25%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>18.75%</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>25.75%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>13.17%</t>
+          <t>14.58%</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>23.95%</t>
+          <t>23.96%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>39.53%</t>
+          <t>39.58%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>36.53%</t>
+          <t>36.46%</t>
         </is>
       </c>
     </row>
@@ -2787,10 +2787,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G32" t="n">
-        <v>-248.7</v>
+        <v>-282.1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2799,45 +2799,45 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>23.53%</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>73.33%</t>
+          <t>64.71%</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>11.76%</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>19.54%</t>
+          <t>20.41%</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>11.49%</t>
+          <t>11.22%</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>32.76%</t>
+          <t>32.65%</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>41.18%</t>
+          <t>45.0%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>20.69%</t>
+          <t>21.94%</t>
         </is>
       </c>
     </row>
@@ -3237,57 +3237,57 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499999999999995</v>
+        <v>32.99999999999999</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>25.97%</t>
+          <t>24.02%</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>16.23%</t>
+          <t>15.64%</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>17.53%</t>
+          <t>16.76%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>47.5%</t>
+          <t>51.16%</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>32.47%</t>
+          <t>31.28%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-76.30000000000004</v>
+        <v>-31.90000000000006</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>165.3000000000001</v>
+        <v>108.4000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1036.5</v>
+        <v>1014.8</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-258.9000000000001</v>
+        <v>-197.6000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-644.6</v>
+        <v>-615.6</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-224.8</v>
+        <v>-274.9999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-142.1</v>
+        <v>-175.5000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>124.9</v>
+        <v>152.4</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -837,57 +837,57 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>189.2</v>
+        <v>87.80000000000003</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>41.67%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>28.83%</t>
+          <t>25.95%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>9.01%</t>
+          <t>11.45%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>21.62%</t>
+          <t>19.08%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>34.38%</t>
+          <t>32.35%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>28.83%</t>
+          <t>29.77%</t>
         </is>
       </c>
     </row>
@@ -987,57 +987,57 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>304.2</v>
+        <v>360.5000000000001</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>41.18%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>23.53%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>29.41%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>5.88%</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>25.6%</t>
+          <t>26.18%</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>8.9%</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>21.47%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>30.23%</t>
+          <t>32.0%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>36.9%</t>
+          <t>38.22%</t>
         </is>
       </c>
     </row>
@@ -1437,57 +1437,57 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>312.8</v>
+        <v>394.4999999999999</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>43.75%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>18.75%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>18.75%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>18.75%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>30.89%</t>
+          <t>30.84%</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>9.42%</t>
+          <t>8.88%</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>23.56%</t>
+          <t>22.9%</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>47.46%</t>
+          <t>43.94%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>37.7%</t>
+          <t>39.72%</t>
         </is>
       </c>
     </row>
@@ -1812,19 +1812,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>-19.80000000000001</v>
+        <v>-0.2000000000000117</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1834,35 +1834,35 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>46.15%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>18.01%</t>
+          <t>19.34%</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>13.26%</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>19.88%</t>
+          <t>20.99%</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>41.38%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>27.33%</t>
+          <t>28.18%</t>
         </is>
       </c>
     </row>
@@ -2112,57 +2112,57 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>-75.8</v>
+        <v>-3.299999999999997</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>35.71%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>16.11%</t>
+          <t>17.5%</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>14.77%</t>
+          <t>13.75%</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>20.81%</t>
+          <t>21.25%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>54.17%</t>
+          <t>46.43%</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>22.82%</t>
+          <t>22.5%</t>
         </is>
       </c>
     </row>
@@ -2187,57 +2187,57 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" t="n">
-        <v>-78.20000000000002</v>
+        <v>-21.20000000000002</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>45.45%</t>
+          <t>41.67%</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>21.32%</t>
+          <t>22.76%</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>13.97%</t>
+          <t>13.79%</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>27.21%</t>
+          <t>25.52%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>55.17%</t>
+          <t>57.58%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>34.56%</t>
+          <t>35.17%</t>
         </is>
       </c>
     </row>
@@ -2412,47 +2412,47 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
-        <v>-333.6</v>
+        <v>-412.9</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>7.69%</t>
+          <t>7.14%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>46.15%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>15.92%</t>
+          <t>14.71%</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>15.29%</t>
+          <t>17.06%</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>24.84%</t>
+          <t>25.29%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>31.21%</t>
+          <t>29.41%</t>
         </is>
       </c>
     </row>
@@ -2937,57 +2937,57 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G34" t="n">
-        <v>88.69999999999997</v>
+        <v>40.99999999999997</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>13.33%</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>46.67%</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>13.33%</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>24.38%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>15.62%</t>
+          <t>16.11%</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>26.88%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>35.9%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>30.56%</t>
         </is>
       </c>
     </row>
@@ -3237,57 +3237,57 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G38" t="n">
-        <v>32.99999999999999</v>
+        <v>45.09999999999999</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>31.25%</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>18.75%</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>24.02%</t>
+          <t>23.27%</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>15.64%</t>
+          <t>14.36%</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>16.76%</t>
+          <t>17.33%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>51.16%</t>
+          <t>48.94%</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>31.28%</t>
+          <t>29.7%</t>
         </is>
       </c>
     </row>
@@ -3537,10 +3537,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>-65.40000000000001</v>
+        <v>-136.2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.90000000000006</v>
+        <v>-133.3000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>108.4000000000001</v>
+        <v>164.7000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1014.8</v>
+        <v>1096.5</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-197.6000000000001</v>
+        <v>-178.0000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-615.6</v>
+        <v>-486.1</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-274.9999999999999</v>
+        <v>-435.1</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-175.5000000000001</v>
+        <v>-223.2</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>152.4</v>
+        <v>164.5</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -762,57 +762,57 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
-        <v>185.7</v>
+        <v>91.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>31.25%</t>
+          <t>27.78%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>31.25%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>24.72%</t>
+          <t>25.62%</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>10.67%</t>
+          <t>12.32%</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>21.35%</t>
+          <t>22.66%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>47.73%</t>
+          <t>46.15%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>34.83%</t>
+          <t>33.99%</t>
         </is>
       </c>
     </row>
@@ -1137,57 +1137,57 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>39.40000000000001</v>
+        <v>143.3</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>28.0%</t>
+          <t>29.82%</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>19.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>28.0%</t>
+          <t>29.82%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>29.41%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.42%</t>
         </is>
       </c>
     </row>
@@ -1212,57 +1212,57 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>141.4</v>
+        <v>207.1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>35.71%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>35.71%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>7.69%</t>
+          <t>7.14%</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>25.66%</t>
+          <t>26.99%</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>7.89%</t>
+          <t>9.82%</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>16.45%</t>
+          <t>17.79%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>40.91%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>38.82%</t>
+          <t>36.81%</t>
         </is>
       </c>
     </row>
@@ -1287,57 +1287,57 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>277.8</v>
+        <v>255.8999999999999</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>35.29%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>29.41%</t>
+          <t>27.78%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>17.65%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>17.65%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>27.23%</t>
+          <t>27.68%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5.63%</t>
+          <t>6.25%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>24.41%</t>
+          <t>24.55%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>31.03%</t>
+          <t>29.03%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>37.09%</t>
+          <t>37.5%</t>
         </is>
       </c>
     </row>
@@ -1587,57 +1587,57 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>50.2</v>
+        <v>29</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>22.58%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>9.68%</t>
+          <t>8.64%</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>27.42%</t>
+          <t>27.16%</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>35.71%</t>
+          <t>38.89%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>29.03%</t>
+          <t>30.86%</t>
         </is>
       </c>
     </row>
@@ -1962,57 +1962,57 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G21" t="n">
-        <v>75.29999999999998</v>
+        <v>87.49999999999999</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>35.71%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>28.57%</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>21.43%</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>174</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>20.69%</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>16.67%</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>144</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>22.22%</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>17.36%</t>
-        </is>
-      </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>20.14%</t>
+          <t>20.11%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>34.38%</t>
+          <t>36.11%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>35.06%</t>
         </is>
       </c>
     </row>
@@ -2187,57 +2187,57 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="n">
-        <v>-21.20000000000002</v>
+        <v>1.699999999999982</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>30.77%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>8.33%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>41.67%</t>
+          <t>38.46%</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>22.76%</t>
+          <t>23.27%</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>13.79%</t>
+          <t>13.21%</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>25.52%</t>
+          <t>25.16%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>57.58%</t>
+          <t>56.76%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>35.17%</t>
+          <t>34.59%</t>
         </is>
       </c>
     </row>
@@ -2337,57 +2337,57 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>17.4</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>41.67%</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>20.33%</t>
+          <t>19.4%</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>8.13%</t>
+          <t>8.96%</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>20.33%</t>
+          <t>19.4%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>61.54%</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>31.71%</t>
+          <t>31.34%</t>
         </is>
       </c>
     </row>
@@ -2562,57 +2562,57 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>-43.59999999999999</v>
+        <v>-30.89999999999999</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>45.45%</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.52%</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>16.19%</t>
+          <t>14.81%</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>18.1%</t>
+          <t>17.78%</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>40.95%</t>
+          <t>39.26%</t>
         </is>
       </c>
     </row>
@@ -2862,57 +2862,57 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G33" t="n">
-        <v>50.89999999999998</v>
+        <v>69.09999999999998</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>25.4%</t>
+          <t>24.36%</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>15.87%</t>
+          <t>16.03%</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>23.81%</t>
+          <t>21.79%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>40.62%</t>
+          <t>39.47%</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>30.77%</t>
         </is>
       </c>
     </row>
@@ -3237,47 +3237,47 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G38" t="n">
-        <v>45.09999999999999</v>
+        <v>-9.900000000000006</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>23.53%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>31.25%</t>
+          <t>29.41%</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>23.53%</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>18.75%</t>
+          <t>23.53%</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>23.27%</t>
+          <t>22.07%</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>14.36%</t>
+          <t>14.08%</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>17.33%</t>
+          <t>16.43%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>29.7%</t>
+          <t>29.58%</t>
         </is>
       </c>
     </row>
@@ -3462,57 +3462,57 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G41" t="n">
-        <v>81.99999999999997</v>
+        <v>60.29999999999997</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>17.04%</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>12.4%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>18.52%</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>40.91%</t>
+          <t>39.13%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>28.15%</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-133.3000000000001</v>
+        <v>-227.5000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>164.7000000000001</v>
+        <v>334.3000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1096.5</v>
+        <v>1053.4</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-178.0000000000001</v>
+        <v>-165.8000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-486.1</v>
+        <v>-484.8</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-435.1</v>
+        <v>-422.3999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-223.2</v>
+        <v>-205.0000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>164.5</v>
+        <v>87.79999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>-176.2</v>
+        <v>-245.2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -549,45 +549,45 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>43.75%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>18.75%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>35.71%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18.86%</t>
+          <t>18.37%</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>13.71%</t>
+          <t>13.78%</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>22.29%</t>
+          <t>23.47%</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>42.42%</t>
+          <t>38.89%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>25.71%</t>
+          <t>24.49%</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>-40.10000000000001</v>
+        <v>-40.1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -687,57 +687,57 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>-190.5</v>
+        <v>-194.8</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>8.33%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19.66%</t>
+          <t>19.86%</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>17.95%</t>
+          <t>16.31%</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>27.35%</t>
+          <t>29.79%</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>43.48%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>29.79%</t>
         </is>
       </c>
     </row>
@@ -762,57 +762,57 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>91.5</v>
+        <v>51.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>27.78%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>35.0%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>25.62%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>12.32%</t>
+          <t>12.28%</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>22.66%</t>
+          <t>23.25%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>46.15%</t>
+          <t>43.86%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>33.99%</t>
+          <t>34.65%</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>87.80000000000003</v>
+        <v>87.80000000000001</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -912,57 +912,57 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>-72.39999999999999</v>
+        <v>-60.50000000000001</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>13.33%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>46.67%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>18.6%</t>
+          <t>19.23%</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>16.86%</t>
+          <t>15.93%</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>20.93%</t>
+          <t>20.88%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>40.62%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>32.56%</t>
+          <t>33.52%</t>
         </is>
       </c>
     </row>
@@ -987,57 +987,57 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>360.5000000000001</v>
+        <v>335.1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>41.18%</t>
+          <t>38.89%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>23.53%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>29.41%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>5.88%</t>
+          <t>5.56%</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>26.18%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>8.82%</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>21.47%</t>
+          <t>21.57%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>32.0%</t>
+          <t>31.37%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>38.22%</t>
+          <t>36.76%</t>
         </is>
       </c>
     </row>
@@ -1062,57 +1062,57 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>-294.2</v>
+        <v>-340.6</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>70.0%</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>14.91%</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>19.23%</t>
+          <t>18.42%</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.81%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>35.29%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>26.92%</t>
+          <t>30.7%</t>
         </is>
       </c>
     </row>
@@ -1212,57 +1212,57 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>207.1</v>
+        <v>133.1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>35.71%</t>
+          <t>29.41%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>23.53%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>35.71%</t>
+          <t>35.29%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>7.14%</t>
+          <t>11.76%</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>26.99%</t>
+          <t>24.38%</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>9.82%</t>
+          <t>9.95%</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>17.79%</t>
+          <t>16.42%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>40.91%</t>
+          <t>40.82%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>36.81%</t>
+          <t>36.32%</t>
         </is>
       </c>
     </row>
@@ -1287,52 +1287,52 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>255.8999999999999</v>
+        <v>316.0999999999999</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>34.78%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>27.78%</t>
+          <t>26.09%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>21.74%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>17.39%</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>27.68%</t>
+          <t>26.74%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>6.25%</t>
+          <t>7.64%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>24.55%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>29.03%</t>
+          <t>33.77%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1365,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>227.0999999999999</v>
+        <v>227.1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>394.4999999999999</v>
+        <v>394.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1512,57 +1512,57 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>146.9</v>
+        <v>80.3</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>45.45%</t>
+          <t>41.67%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19.17%</t>
+          <t>17.91%</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>8.21%</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>23.33%</t>
+          <t>23.13%</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>39.13%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>20.9%</t>
         </is>
       </c>
     </row>
@@ -1662,57 +1662,57 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>28.79999999999999</v>
+        <v>97.19999999999999</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>22.08%</t>
+          <t>21.36%</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>11.69%</t>
+          <t>10.68%</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>12.99%</t>
+          <t>13.59%</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>41.18%</t>
+          <t>40.91%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>38.83%</t>
         </is>
       </c>
     </row>
@@ -1737,57 +1737,57 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>-119.8</v>
+        <v>-67.90000000000001</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>21.05%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>42.11%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>10.53%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>27.78%</t>
+          <t>26.32%</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>21.72%</t>
+          <t>21.65%</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>15.15%</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>18.1%</t>
+          <t>19.05%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>38.0%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>31.67%</t>
+          <t>31.6%</t>
         </is>
       </c>
     </row>
@@ -1812,57 +1812,57 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2000000000000117</v>
+        <v>-14.29999999999999</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>31.25%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>6.25%</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19.34%</t>
+          <t>19.27%</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>13.26%</t>
+          <t>13.02%</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>20.99%</t>
+          <t>20.31%</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>37.84%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>28.18%</t>
+          <t>29.69%</t>
         </is>
       </c>
     </row>
@@ -1887,57 +1887,57 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>-162.1</v>
+        <v>-213.5</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>18.18%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>54.55%</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>128</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>15.62%</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>14.84%</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>25.78%</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
           <t>50.0%</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>118</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>16.1%</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>12.71%</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>25.42%</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>47.37%</t>
-        </is>
-      </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>25.42%</t>
+          <t>25.78%</t>
         </is>
       </c>
     </row>
@@ -1962,47 +1962,47 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>87.49999999999999</v>
+        <v>33.89999999999997</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>35.71%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>13.33%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>20.69%</t>
+          <t>19.35%</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>16.13%</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>20.11%</t>
+          <t>20.43%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>35.06%</t>
+          <t>35.48%</t>
         </is>
       </c>
     </row>
@@ -2112,47 +2112,47 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.299999999999997</v>
+        <v>-67.3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>13.33%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>35.71%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>21.43%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>17.5%</t>
+          <t>16.18%</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>13.75%</t>
+          <t>14.45%</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>21.25%</t>
+          <t>20.23%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>22.5%</t>
+          <t>23.7%</t>
         </is>
       </c>
     </row>
@@ -2187,57 +2187,57 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G24" t="n">
-        <v>1.699999999999982</v>
+        <v>-58.19999999999999</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>13.33%</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>26.67%</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>23.27%</t>
+          <t>22.16%</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>13.21%</t>
+          <t>13.51%</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>25.16%</t>
+          <t>25.41%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>56.76%</t>
+          <t>56.1%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>34.59%</t>
+          <t>33.51%</t>
         </is>
       </c>
     </row>
@@ -2337,57 +2337,57 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.199999999999999</v>
+        <v>-0.8000000000000114</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>41.67%</t>
+          <t>35.71%</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>19.4%</t>
+          <t>19.62%</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>8.96%</t>
+          <t>10.13%</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>19.4%</t>
+          <t>20.25%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>61.54%</t>
+          <t>58.06%</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>31.34%</t>
+          <t>33.54%</t>
         </is>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="G28" t="n">
-        <v>-22.49999999999999</v>
+        <v>-22.5</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>-30.89999999999999</v>
+        <v>-30.89999999999998</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2637,57 +2637,57 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>67.50000000000004</v>
+        <v>113.3</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>27.78%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>31.25%</t>
+          <t>27.78%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>18.75%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>24.88%</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>14.58%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>23.96%</t>
+          <t>23.04%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>39.58%</t>
+          <t>42.59%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>36.46%</t>
+          <t>37.79%</t>
         </is>
       </c>
     </row>
@@ -2712,57 +2712,57 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G31" t="n">
-        <v>57.20000000000002</v>
+        <v>196.3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>31.58%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>13.33%</t>
+          <t>15.79%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>46.67%</t>
+          <t>42.11%</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>13.33%</t>
+          <t>10.53%</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>24.71%</t>
+          <t>24.22%</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>9.42%</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>23.53%</t>
+          <t>23.32%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>38.1%</t>
+          <t>40.74%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>26.47%</t>
+          <t>25.11%</t>
         </is>
       </c>
     </row>
@@ -2787,57 +2787,57 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G32" t="n">
-        <v>-282.1</v>
+        <v>-214.7</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>23.53%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>64.71%</t>
+          <t>65.0%</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>11.76%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>20.41%</t>
+          <t>22.36%</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>11.22%</t>
+          <t>11.39%</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>32.65%</t>
+          <t>32.49%</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>45.0%</t>
+          <t>37.74%</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>21.94%</t>
+          <t>23.21%</t>
         </is>
       </c>
     </row>
@@ -2862,57 +2862,57 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G33" t="n">
-        <v>69.09999999999998</v>
+        <v>129.7</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>35.71%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>24.36%</t>
+          <t>24.43%</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>16.03%</t>
+          <t>14.77%</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>21.79%</t>
+          <t>22.16%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>39.47%</t>
+          <t>39.53%</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>30.11%</t>
         </is>
       </c>
     </row>
@@ -2937,57 +2937,57 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G34" t="n">
-        <v>40.99999999999997</v>
+        <v>44.49999999999999</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>13.33%</t>
+          <t>18.75%</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>46.67%</t>
+          <t>43.75%</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>13.33%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>21.47%</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>16.11%</t>
+          <t>15.18%</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>24.61%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>36.59%</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>30.56%</t>
+          <t>31.94%</t>
         </is>
       </c>
     </row>
@@ -3162,57 +3162,57 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G37" t="n">
-        <v>26.3</v>
+        <v>56.10000000000002</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>18.75%</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>53.85%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>18.75%</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>7.69%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>21.15%</t>
+          <t>20.73%</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>11.54%</t>
+          <t>11.4%</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>24.36%</t>
+          <t>22.8%</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>30.3%</t>
+          <t>32.5%</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>25.39%</t>
         </is>
       </c>
     </row>
@@ -3237,57 +3237,57 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G38" t="n">
-        <v>-9.900000000000006</v>
+        <v>27.00000000000001</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>23.53%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>29.41%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>23.53%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>23.53%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>22.07%</t>
+          <t>22.71%</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>14.08%</t>
+          <t>13.1%</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>16.43%</t>
+          <t>17.03%</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>48.94%</t>
+          <t>51.92%</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>29.58%</t>
+          <t>30.13%</t>
         </is>
       </c>
     </row>
@@ -3390,7 +3390,7 @@
         <v>12</v>
       </c>
       <c r="G40" t="n">
-        <v>-56.79999999999999</v>
+        <v>-56.79999999999998</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3462,57 +3462,57 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G41" t="n">
-        <v>60.29999999999997</v>
+        <v>149.1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>38.46%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>27.27%</t>
+          <t>23.08%</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>17.04%</t>
+          <t>19.88%</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>11.11%</t>
+          <t>9.94%</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>18.52%</t>
+          <t>20.5%</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>39.13%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>28.15%</t>
+          <t>29.81%</t>
         </is>
       </c>
     </row>
@@ -3537,10 +3537,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>-136.2</v>
+        <v>-235.2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>40.54%</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-227.5000000000001</v>
+        <v>-340.8000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>334.3000000000001</v>
+        <v>200.4</v>
       </c>
     </row>
     <row r="4">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1053.4</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="5">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-165.8000000000001</v>
+        <v>-164.6</v>
       </c>
     </row>
     <row r="6">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-484.8</v>
+        <v>-717.3</v>
       </c>
     </row>
     <row r="7">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-422.3999999999999</v>
+        <v>-237.5</v>
       </c>
     </row>
     <row r="8">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-205.0000000000001</v>
+        <v>-83.49999999999997</v>
       </c>
     </row>
     <row r="9">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>87.79999999999998</v>
+        <v>243.3000000000001</v>
       </c>
     </row>
   </sheetData>
